--- a/AAII_Financials/Quarterly/DCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>DCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,232 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>173500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>186900</v>
+      </c>
+      <c r="F8" s="3">
         <v>181100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>180500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>172600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>164200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>159800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>154800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>150500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>142300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>138700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>140900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>136300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>142500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>136700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>146800</v>
+      </c>
+      <c r="F9" s="3">
         <v>142800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>142400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>136900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>131500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>128700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>122800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>123700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>116500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>112600</v>
-      </c>
-      <c r="M9" s="3">
-        <v>114700</v>
-      </c>
-      <c r="N9" s="3">
-        <v>111300</v>
       </c>
       <c r="O9" s="3">
         <v>114700</v>
       </c>
       <c r="P9" s="3">
+        <v>111300</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>114700</v>
+      </c>
+      <c r="R9" s="3">
         <v>107300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>40100</v>
+      </c>
+      <c r="F10" s="3">
         <v>38300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>38100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>35700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>32700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>31100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>32000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>26800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>25800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>26100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>26200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>25000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>27800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -882,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -926,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,52 +1003,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>4800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>3400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>5200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>2200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>8300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1200</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>159800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>171900</v>
+      </c>
+      <c r="F17" s="3">
         <v>166500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>166900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>159700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>158800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>153100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>149200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>145200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>144800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>131300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>134300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>132000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>134700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>124500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F18" s="3">
         <v>14600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>13600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>12900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>5400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>6700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>5600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>5300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>7400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>6600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>4300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>7800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,8 +1244,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1194,213 +1261,243 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>22600</v>
+      </c>
+      <c r="F21" s="3">
         <v>21600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>20600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>19600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>12300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>13100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>11900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>11200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>3500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>13500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>12400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>10000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>13300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="E22" s="3">
-        <v>4400</v>
+        <v>5200</v>
       </c>
       <c r="F22" s="3">
         <v>4400</v>
       </c>
       <c r="G22" s="3">
-        <v>3800</v>
+        <v>4400</v>
       </c>
       <c r="H22" s="3">
-        <v>2500</v>
+        <v>4400</v>
       </c>
       <c r="I22" s="3">
         <v>3800</v>
       </c>
       <c r="J22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L22" s="3">
         <v>2900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>2800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>2100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>2000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F23" s="3">
         <v>10200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>9200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>8500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H23" s="3">
-        <v>4300</v>
       </c>
       <c r="I23" s="3">
         <v>1800</v>
       </c>
       <c r="J23" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L23" s="3">
         <v>2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-5100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>5600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>4600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>5800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F24" s="3">
         <v>1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-1500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>3000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F26" s="3">
         <v>8300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>7800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>7500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>4200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>4700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>3800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>2800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F27" s="3">
         <v>8300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>7800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>7500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>4200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>4700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>3800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>2800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1601,14 +1722,14 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>13000</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>13000</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1619,8 +1740,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,8 +1840,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1722,81 +1861,93 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F33" s="3">
         <v>8300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>7800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>7500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>4200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>9500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>4700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>3800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>2800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F35" s="3">
         <v>8300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>7800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>7500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>4200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>9500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>4700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>3800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>2800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,52 +2139,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>39600</v>
+      </c>
+      <c r="F41" s="3">
         <v>6400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>10300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3700</v>
-      </c>
-      <c r="M41" s="3">
-        <v>7400</v>
-      </c>
-      <c r="N41" s="3">
-        <v>7100</v>
       </c>
       <c r="O41" s="3">
         <v>7400</v>
       </c>
       <c r="P41" s="3">
+        <v>7100</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>7400</v>
+      </c>
+      <c r="R41" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,184 +2235,214 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>198800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>173800</v>
+      </c>
+      <c r="F43" s="3">
         <v>179500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>169900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>156400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>154500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>152500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>146100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>143100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>74100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>78500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>82000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>71600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>76200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>73800</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>119800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>112500</v>
+      </c>
+      <c r="F44" s="3">
         <v>109800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>109300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>104000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>101100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>101800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>95200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>85900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>122200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>137200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>129400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>127200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>119900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F45" s="3">
         <v>17000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>18000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>18000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>18200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>24100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>23400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>23700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>22600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>22500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>23100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>21600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>22400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>396800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>340800</v>
+      </c>
+      <c r="F46" s="3">
         <v>312700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>300500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>282200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>284100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>282000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>268200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>254500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>221000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>241800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>241800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>227600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>225900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>232800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2276,96 +2485,114 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>133300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>134300</v>
+      </c>
+      <c r="F48" s="3">
         <v>131200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>130500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>127200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>107000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>106600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>106600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>110000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>110300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>114000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>110800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>104900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>101600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>305400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>309300</v>
+      </c>
+      <c r="F49" s="3">
         <v>240000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>242800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>245400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>248100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>250500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>253500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>229600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>232100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>234700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>179700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>181900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>201900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>186400</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,52 +2685,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F52" s="3">
         <v>5600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>5800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>5900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>5500</v>
-      </c>
-      <c r="H52" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3500</v>
       </c>
       <c r="J52" s="3">
         <v>3500</v>
       </c>
       <c r="K52" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="L52" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="M52" s="3">
         <v>3400</v>
       </c>
       <c r="N52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O52" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P52" s="3">
         <v>3600</v>
       </c>
-      <c r="O52" s="3" t="s">
+      <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>841800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>790400</v>
+      </c>
+      <c r="F54" s="3">
         <v>689600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>679600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>660700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>644700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>642600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>631900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>597600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>566800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>593800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>535800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>518000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>515400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>521000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,60 +2879,68 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>82600</v>
+      </c>
+      <c r="F57" s="3">
         <v>78300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>79300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>68800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>69300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>73500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>71700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>65000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>51900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>68500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>71700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>63300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>57000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2300</v>
+        <v>7000</v>
       </c>
       <c r="E58" s="3">
-        <v>2300</v>
+        <v>7000</v>
       </c>
       <c r="F58" s="3">
         <v>2300</v>
@@ -2681,20 +2948,20 @@
       <c r="G58" s="3">
         <v>2300</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
+      <c r="H58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>2300</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2708,184 +2975,214 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>55100</v>
+      </c>
+      <c r="F59" s="3">
         <v>52500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>49400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>46600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>54900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>47000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>41000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>38200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>28300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>29800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>25800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>28100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>29300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>142900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>144700</v>
+      </c>
+      <c r="F60" s="3">
         <v>133100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>131000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>117700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>126500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>120600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>112600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>103200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>80200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>98300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>97500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>91400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>86300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>343600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>300900</v>
+      </c>
+      <c r="F61" s="3">
         <v>222600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>225600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>229100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>228900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>229400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>231200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>209700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>216100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>222400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>169600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>162200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>166900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>176600</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>50100</v>
+        <v>52800</v>
       </c>
       <c r="E62" s="3">
-        <v>50800</v>
+        <v>52100</v>
       </c>
       <c r="F62" s="3">
         <v>50100</v>
       </c>
       <c r="G62" s="3">
+        <v>50800</v>
+      </c>
+      <c r="H62" s="3">
+        <v>50100</v>
+      </c>
+      <c r="I62" s="3">
         <v>32500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>37000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>38100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>37300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>34900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>48500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>49700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>50100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>50100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>539400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>497600</v>
+      </c>
+      <c r="F66" s="3">
         <v>405800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>407400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>396900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>387900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>387000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>381900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>350300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>331200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>369200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>316800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>303700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>303300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>309900</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>220500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>212600</v>
+      </c>
+      <c r="F72" s="3">
         <v>203700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>195400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>187600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>180400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>179400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>175200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>173700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>161400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>151900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>147200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>143400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>141300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>140000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>302400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>292800</v>
+      </c>
+      <c r="F76" s="3">
         <v>283800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>272200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>263800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>256800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>255600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>250000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>247300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>235600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>224600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>218900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>214300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>212100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F81" s="3">
         <v>8300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>7800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>7500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>4200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>9500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>4700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>3800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>2800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,52 +4024,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F83" s="3">
         <v>7000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>7000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>6800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>6700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>6300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>6300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>6000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>5700</v>
-      </c>
-      <c r="L83" s="3">
-        <v>5600</v>
       </c>
       <c r="M83" s="3">
         <v>5700</v>
       </c>
       <c r="N83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="O83" s="3">
+        <v>5700</v>
+      </c>
+      <c r="P83" s="3">
         <v>5800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>5400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>31000</v>
+      </c>
+      <c r="F89" s="3">
         <v>12000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>9800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>12800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>7200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>15900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>10300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>8100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>11100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>13200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>15800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,52 +4394,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-7100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-4300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-4800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-5300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-4200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-3000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-8400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-9400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-6800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-4300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,52 +4540,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-80200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-7100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-4300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-3200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-4500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-5000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-35100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-67200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-9400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-6800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-7700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,52 +4810,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>82100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-5100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-2200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>21000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-7400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-6900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>52500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>6700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-6800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-10100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4413,48 +4910,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>32800</v>
+      </c>
+      <c r="F102" s="3">
         <v>2700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-6500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>6700</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>1700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-3700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-2000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>DCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>147300</v>
+      </c>
+      <c r="E8" s="3">
         <v>173500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>186900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>181100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>180500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>172600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>164200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>159800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>154800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>150500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>142300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>138700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>140900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>136300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>142500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>114600</v>
+      </c>
+      <c r="E9" s="3">
         <v>136700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>146800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>142800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>142400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>136900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>131500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>128700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>122800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>123700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>116500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>112600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>114700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>111300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>114700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>107300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E10" s="3">
         <v>36800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>40100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>38300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>38100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>35700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>32700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>31100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>32000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>26800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>25800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>26100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>26200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>25000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>27800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,20 +1026,23 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>700</v>
       </c>
       <c r="E14" s="3">
+        <v>800</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1030,37 +1050,40 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>4800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>1200</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>137300</v>
+      </c>
+      <c r="E17" s="3">
         <v>159800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>171900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>166500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>166900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>159700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>158800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>153100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>149200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>145200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>144800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>131300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>134300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>132000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>134700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>124500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E18" s="3">
         <v>13700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>14600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>13600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1267,98 +1301,104 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E21" s="3">
         <v>21000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>22600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>21600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>20600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>19600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>12300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>13100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>13500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>12400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>10000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>13300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E22" s="3">
         <v>4200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4400</v>
       </c>
       <c r="G22" s="3">
         <v>4400</v>
@@ -1367,137 +1407,146 @@
         <v>4400</v>
       </c>
       <c r="I22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J22" s="3">
         <v>3800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E23" s="3">
         <v>9400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>9800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>10200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>9200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E26" s="3">
         <v>7900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>7800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>7500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E27" s="3">
         <v>7900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>7800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>7500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1728,11 +1789,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>13000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1867,87 +1937,93 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E33" s="3">
         <v>7900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>7800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E35" s="3">
         <v>7900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>7800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>70800</v>
+      </c>
+      <c r="E41" s="3">
         <v>65600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>39600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,208 +2331,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>190400</v>
+      </c>
+      <c r="E43" s="3">
         <v>198800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>173800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>179500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>169900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>156400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>154500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>152500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>146100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>143100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>74100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>78500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>82000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>71600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>76200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>73800</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>128600</v>
+      </c>
+      <c r="E44" s="3">
         <v>119800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>112500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>109800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>109300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>104000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>101100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>101800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>95200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>85900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>122200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>137200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>129400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>127200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>119900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E45" s="3">
         <v>12600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>18000</v>
       </c>
       <c r="H45" s="3">
         <v>18000</v>
       </c>
       <c r="I45" s="3">
+        <v>18000</v>
+      </c>
+      <c r="J45" s="3">
         <v>18200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>24100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>23700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>22600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>22500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>23100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>21600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>22400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>401700</v>
+      </c>
+      <c r="E46" s="3">
         <v>396800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>340800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>312700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>282200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>284100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>282000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>268200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>254500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>221000</v>
-      </c>
-      <c r="N46" s="3">
-        <v>241800</v>
       </c>
       <c r="O46" s="3">
         <v>241800</v>
       </c>
       <c r="P46" s="3">
+        <v>241800</v>
+      </c>
+      <c r="Q46" s="3">
         <v>227600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>225900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>232800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,108 +2596,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>131600</v>
+      </c>
+      <c r="E48" s="3">
         <v>133300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>134300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>131200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>130500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>127200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>107000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>106600</v>
       </c>
       <c r="K48" s="3">
         <v>106600</v>
       </c>
       <c r="L48" s="3">
+        <v>106600</v>
+      </c>
+      <c r="M48" s="3">
         <v>110000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>110300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>114000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>110800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>104900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>101600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>302100</v>
+      </c>
+      <c r="E49" s="3">
         <v>305400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>309300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>240000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>242800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>245400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>248100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>250500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>253500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>229600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>232100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>234700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>179700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>181900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>201900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>186400</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,31 +2808,34 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E52" s="3">
         <v>6400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5500</v>
-      </c>
-      <c r="J52" s="3">
-        <v>3500</v>
       </c>
       <c r="K52" s="3">
         <v>3500</v>
@@ -2724,25 +2844,28 @@
         <v>3500</v>
       </c>
       <c r="M52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N52" s="3">
         <v>3400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3600</v>
       </c>
-      <c r="Q52" s="3" t="s">
+      <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>841600</v>
+      </c>
+      <c r="E54" s="3">
         <v>841800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>790400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>689600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>679600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>660700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>644700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>642600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>631900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>597600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>566800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>593800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>535800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>518000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>515400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>521000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,58 +3011,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>69100</v>
+      </c>
+      <c r="E57" s="3">
         <v>77000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>82600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>78300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>79300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>68800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>69300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>73500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>71700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>65000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>51900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>68500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>71700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>63300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>57000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2943,7 +3077,7 @@
         <v>7000</v>
       </c>
       <c r="F58" s="3">
-        <v>2300</v>
+        <v>7000</v>
       </c>
       <c r="G58" s="3">
         <v>2300</v>
@@ -2954,8 +3088,8 @@
       <c r="I58" s="3">
         <v>2300</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
+      <c r="J58" s="3">
+        <v>2300</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2963,8 +3097,8 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2981,208 +3115,223 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>59300</v>
+      </c>
+      <c r="E59" s="3">
         <v>59000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>55100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>52500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>49400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>46600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>54900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>47000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>41000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>38200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>28300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>29800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>25800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>28100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>29300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>135400</v>
+      </c>
+      <c r="E60" s="3">
         <v>142900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>144700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>133100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>131000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>117700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>126500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>120600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>112600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>103200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>80200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>98300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>97500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>91400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>86300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>342000</v>
+      </c>
+      <c r="E61" s="3">
         <v>343600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>300900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>222600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>225600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>229100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>228900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>229400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>231200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>209700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>216100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>222400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>169600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>162200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>166900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>176600</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E62" s="3">
         <v>52800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>52100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>50100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>50800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>50100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>32500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>37000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>38100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>37300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>34900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>48500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>49700</v>
-      </c>
-      <c r="P62" s="3">
-        <v>50100</v>
       </c>
       <c r="Q62" s="3">
         <v>50100</v>
       </c>
       <c r="R62" s="3">
+        <v>50100</v>
+      </c>
+      <c r="S62" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>532000</v>
+      </c>
+      <c r="E66" s="3">
         <v>539400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>497600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>405800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>407400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>396900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>387900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>387000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>381900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>350300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>331200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>369200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>316800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>303700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>303300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>309900</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>225600</v>
+      </c>
+      <c r="E72" s="3">
         <v>220500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>212600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>203700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>195400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>187600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>180400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>179400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>175200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>173700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>161400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>151900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>147200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>143400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>141300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>140000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>309600</v>
+      </c>
+      <c r="E76" s="3">
         <v>302400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>292800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>283800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>272200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>263800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>256800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>255600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>250000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>247300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>235600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>224600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>218900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>214300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>212100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E81" s="3">
         <v>7900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>7800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4035,49 +4234,52 @@
         <v>7300</v>
       </c>
       <c r="E83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F83" s="3">
         <v>7600</v>
-      </c>
-      <c r="F83" s="3">
-        <v>7000</v>
       </c>
       <c r="G83" s="3">
         <v>7000</v>
       </c>
       <c r="H83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I83" s="3">
         <v>6800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>6300</v>
       </c>
       <c r="K83" s="3">
         <v>6300</v>
       </c>
       <c r="L83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="M83" s="3">
         <v>6000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-12000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>31000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>12000</v>
       </c>
-      <c r="G89" s="3">
-        <v>9800</v>
-      </c>
       <c r="H89" s="3">
+        <v>9700</v>
+      </c>
+      <c r="I89" s="3">
         <v>-1700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>12800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>11100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>13200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>15800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-80200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-35100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-67200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E100" s="3">
         <v>41700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>82100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-1600</v>
       </c>
       <c r="I100" s="3">
         <v>-1600</v>
       </c>
       <c r="J100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>21000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>52500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>6700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6800</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-10100</v>
       </c>
       <c r="R100" s="3">
         <v>-10100</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>-10100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E102" s="3">
         <v>26000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>32800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6700</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>1700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>DCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,258 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>150400</v>
+      </c>
+      <c r="E8" s="3">
         <v>147300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>173500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>186900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>181100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>180500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>172600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>164200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>159800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>154800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>150500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>142300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>138700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>140900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>136300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>142500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>116900</v>
+      </c>
+      <c r="E9" s="3">
         <v>114600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>136700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>146800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>142800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>142400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>136900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>131500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>128700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>122800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>123700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>116500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>112600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>114700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>111300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>114700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>107300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E10" s="3">
         <v>32700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>36800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>40100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>38300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>38100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>35700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>32700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>31100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>32000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>26800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>25800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>26100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>26200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>25000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>27800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,23 +1046,26 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E14" s="3">
         <v>700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1053,37 +1073,40 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>4800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>1200</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>140100</v>
+      </c>
+      <c r="E17" s="3">
         <v>137300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>159800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>171900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>166500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>166900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>159700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>158800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>153100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>149200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>145200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>144800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>131300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>134300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>132000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>134700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>124500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E18" s="3">
         <v>10000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>13700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>15000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>14600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>13600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,13 +1313,14 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1304,37 +1338,40 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1342,66 +1379,69 @@
         <v>17400</v>
       </c>
       <c r="E21" s="3">
+        <v>17400</v>
+      </c>
+      <c r="F21" s="3">
         <v>21000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>22600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>21600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>20600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>19600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>12300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>13500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>12400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>10000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>13300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E22" s="3">
         <v>3700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>4400</v>
       </c>
       <c r="H22" s="3">
         <v>4400</v>
@@ -1410,143 +1450,152 @@
         <v>4400</v>
       </c>
       <c r="J22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K22" s="3">
         <v>3800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E23" s="3">
         <v>6300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>9400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>9800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>10200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>800</v>
+      </c>
+      <c r="E24" s="3">
         <v>1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E26" s="3">
         <v>5100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>7800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E27" s="3">
         <v>5100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>7800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1792,11 +1853,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>13000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,13 +1983,16 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1940,90 +2010,96 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E33" s="3">
         <v>5100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E35" s="3">
         <v>5100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2314,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E41" s="3">
         <v>70800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>65600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>39600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,220 +2424,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>203500</v>
+      </c>
+      <c r="E43" s="3">
         <v>190400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>198800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>173800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>179500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>169900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>156400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>154500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>152500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>146100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>143100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>74100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>78500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>82000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>71600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>76200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>73800</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E44" s="3">
         <v>128600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>119800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>112500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>109800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>109300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>104000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>101100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>101800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>95200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>85900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>122200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>137200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>129400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>127200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>119900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E45" s="3">
         <v>11900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17000</v>
-      </c>
-      <c r="H45" s="3">
-        <v>18000</v>
       </c>
       <c r="I45" s="3">
         <v>18000</v>
       </c>
       <c r="J45" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K45" s="3">
         <v>18200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>24100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>23400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>23700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>22600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>22500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>23100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>21600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>22400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>425100</v>
+      </c>
+      <c r="E46" s="3">
         <v>401700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>396800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>340800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>312700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>282200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>284100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>282000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>268200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>254500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>221000</v>
-      </c>
-      <c r="O46" s="3">
-        <v>241800</v>
       </c>
       <c r="P46" s="3">
         <v>241800</v>
       </c>
       <c r="Q46" s="3">
+        <v>241800</v>
+      </c>
+      <c r="R46" s="3">
         <v>227600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>225900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>232800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,114 +2704,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>124100</v>
+      </c>
+      <c r="E48" s="3">
         <v>131600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>133300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>134300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>131200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>130500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>127200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>107000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>106600</v>
       </c>
       <c r="L48" s="3">
         <v>106600</v>
       </c>
       <c r="M48" s="3">
+        <v>106600</v>
+      </c>
+      <c r="N48" s="3">
         <v>110000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>110300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>114000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>110800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>104900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>101600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>298800</v>
+      </c>
+      <c r="E49" s="3">
         <v>302100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>305400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>309300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>240000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>242800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>245400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>248100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>250500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>253500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>229600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>232100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>234700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>179700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>181900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>201900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>186400</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,34 +2928,37 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E52" s="3">
         <v>6200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5500</v>
-      </c>
-      <c r="K52" s="3">
-        <v>3500</v>
       </c>
       <c r="L52" s="3">
         <v>3500</v>
@@ -2847,25 +2967,28 @@
         <v>3500</v>
       </c>
       <c r="N52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O52" s="3">
         <v>3400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3600</v>
       </c>
-      <c r="R52" s="3" t="s">
+      <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>853400</v>
+      </c>
+      <c r="E54" s="3">
         <v>841600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>841800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>790400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>689600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>679600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>660700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>644700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>642600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>631900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>597600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>566800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>593800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>535800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>518000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>515400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>521000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,61 +3142,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>65700</v>
+      </c>
+      <c r="E57" s="3">
         <v>69100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>77000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>82600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>78300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>79300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>68800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>69300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>73500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>71700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>65000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>51900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>68500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>71700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>63300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>57000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3080,7 +3214,7 @@
         <v>7000</v>
       </c>
       <c r="G58" s="3">
-        <v>2300</v>
+        <v>7000</v>
       </c>
       <c r="H58" s="3">
         <v>2300</v>
@@ -3091,8 +3225,8 @@
       <c r="J58" s="3">
         <v>2300</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
+      <c r="K58" s="3">
+        <v>2300</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
@@ -3100,8 +3234,8 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3118,220 +3252,235 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>65200</v>
+      </c>
+      <c r="E59" s="3">
         <v>59300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>59000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>55100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>52500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>49400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>46600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>54900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>47000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>41000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>38200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>28300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>29800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>25800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>28100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>29300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>137900</v>
+      </c>
+      <c r="E60" s="3">
         <v>135400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>142900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>144700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>133100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>131000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>117700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>126500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>120600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>112600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>103200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>80200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>98300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>97500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>91400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>86300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>340300</v>
+      </c>
+      <c r="E61" s="3">
         <v>342000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>343600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>300900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>222600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>225600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>229100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>228900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>229400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>231200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>209700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>216100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>222400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>169600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>162200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>166900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>176600</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E62" s="3">
         <v>54700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>52800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>52100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>50100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>50800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>50100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>32500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>37000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>38100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>37300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>34900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>48500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>49700</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>50100</v>
       </c>
       <c r="R62" s="3">
         <v>50100</v>
       </c>
       <c r="S62" s="3">
+        <v>50100</v>
+      </c>
+      <c r="T62" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3644,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>533900</v>
+      </c>
+      <c r="E66" s="3">
         <v>532000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>539400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>497600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>405800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>407400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>396900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>387900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>387000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>381900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>350300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>331200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>369200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>316800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>303700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>303300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>309900</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>232100</v>
+      </c>
+      <c r="E72" s="3">
         <v>225600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>220500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>212600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>203700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>195400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>187600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>180400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>179400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>175200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>173700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>161400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>151900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>147200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>143400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>141300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>140000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>319400</v>
+      </c>
+      <c r="E76" s="3">
         <v>309600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>302400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>292800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>283800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>272200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>263800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>256800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>255600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>250000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>247300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>235600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>224600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>218900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>214300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>212100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E81" s="3">
         <v>5100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4423,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="E83" s="3">
         <v>7300</v>
       </c>
       <c r="F83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G83" s="3">
         <v>7600</v>
-      </c>
-      <c r="G83" s="3">
-        <v>7000</v>
       </c>
       <c r="H83" s="3">
         <v>7000</v>
       </c>
       <c r="I83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J83" s="3">
         <v>6800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>6300</v>
       </c>
       <c r="L83" s="3">
         <v>6300</v>
       </c>
       <c r="M83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="N83" s="3">
         <v>6000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E89" s="3">
         <v>8600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-12000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>31000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>12000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>12800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>15900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>10300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>11100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>13200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>15800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4837,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-80200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-35100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-67200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5305,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>41700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>82100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-1600</v>
       </c>
       <c r="J100" s="3">
         <v>-1600</v>
       </c>
       <c r="K100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L100" s="3">
         <v>-2200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>21000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>52500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>6700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6800</v>
-      </c>
-      <c r="R100" s="3">
-        <v>-10100</v>
       </c>
       <c r="S100" s="3">
         <v>-10100</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>-10100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5417,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E102" s="3">
         <v>5200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>26000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>32800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6700</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>1700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>DCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,270 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>157800</v>
+      </c>
+      <c r="E8" s="3">
         <v>150400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>147300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>173500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>186900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>181100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>180500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>172600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>164200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>159800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>154800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>150500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>142300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>138700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>140900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>136300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>142500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E9" s="3">
         <v>116900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>114600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>136700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>146800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>142800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>142400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>136900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>131500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>128700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>122800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>123700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>116500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>112600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>114700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>111300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>114700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>107300</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E10" s="3">
         <v>33500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>32700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>36800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>40100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>38300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>38100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>35700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>32700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>31100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>32000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>26800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>25800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>26100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>26200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>25000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>27800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -993,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,26 +1065,29 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>700</v>
+      </c>
+      <c r="E14" s="3">
         <v>1100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1076,37 +1095,40 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>4800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>1200</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>146200</v>
+      </c>
+      <c r="E17" s="3">
         <v>140100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>137300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>159800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>171900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>166500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>166900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>159700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>158800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>153100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>149200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>145200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>144800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>131300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>134300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>132000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>134700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>124500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E18" s="3">
         <v>10300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>13700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>15000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>14600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>13600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>12900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,17 +1346,18 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1341,110 +1374,116 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>17400</v>
+        <v>18700</v>
       </c>
       <c r="E21" s="3">
         <v>17400</v>
       </c>
       <c r="F21" s="3">
+        <v>17400</v>
+      </c>
+      <c r="G21" s="3">
         <v>21000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>22600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>21600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>20600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>19600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>13500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>12400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>10000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>13300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E22" s="3">
         <v>3100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>4400</v>
       </c>
       <c r="I22" s="3">
         <v>4400</v>
@@ -1453,149 +1492,158 @@
         <v>4400</v>
       </c>
       <c r="K22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="L22" s="3">
         <v>3800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E23" s="3">
         <v>7300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>9400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>9800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>10200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E26" s="3">
         <v>6500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E27" s="3">
         <v>6500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1856,11 +1916,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>13000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1874,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,17 +2052,20 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2013,93 +2082,99 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E33" s="3">
         <v>6500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>9500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E35" s="3">
         <v>6500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>9500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E41" s="3">
         <v>74600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>70800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>65600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>39600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2427,232 +2516,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>212100</v>
+      </c>
+      <c r="E43" s="3">
         <v>203500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>190400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>198800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>173800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>179500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>169900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>156400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>154500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>152500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>146100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>143100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>74100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>78500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>82000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>71600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>76200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>73800</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>129200</v>
+      </c>
+      <c r="E44" s="3">
         <v>127000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>128600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>119800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>112500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>109800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>109300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>104000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>101100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>101800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>95200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>85900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>122200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>137200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>129400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>127200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>119900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E45" s="3">
         <v>20000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17000</v>
-      </c>
-      <c r="I45" s="3">
-        <v>18000</v>
       </c>
       <c r="J45" s="3">
         <v>18000</v>
       </c>
       <c r="K45" s="3">
+        <v>18000</v>
+      </c>
+      <c r="L45" s="3">
         <v>18200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>24100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>23400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>23700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>22600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>22500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>23100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>21600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>22400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>410300</v>
+      </c>
+      <c r="E46" s="3">
         <v>425100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>401700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>396800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>340800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>312700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>282200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>284100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>282000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>268200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>254500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>221000</v>
-      </c>
-      <c r="P46" s="3">
-        <v>241800</v>
       </c>
       <c r="Q46" s="3">
         <v>241800</v>
       </c>
       <c r="R46" s="3">
+        <v>241800</v>
+      </c>
+      <c r="S46" s="3">
         <v>227600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>225900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>232800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2707,120 +2811,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>126300</v>
+      </c>
+      <c r="E48" s="3">
         <v>124100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>131600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>133300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>134300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>131200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>130500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>127200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>107000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>106600</v>
       </c>
       <c r="M48" s="3">
         <v>106600</v>
       </c>
       <c r="N48" s="3">
+        <v>106600</v>
+      </c>
+      <c r="O48" s="3">
         <v>110000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>110300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>114000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>110800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>104900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>101600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>295600</v>
+      </c>
+      <c r="E49" s="3">
         <v>298800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>302100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>305400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>309300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>240000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>242800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>245400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>248100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>250500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>253500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>229600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>232100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>234700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>179700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>181900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>201900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>186400</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,37 +3047,40 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E52" s="3">
         <v>5300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5500</v>
-      </c>
-      <c r="L52" s="3">
-        <v>3500</v>
       </c>
       <c r="M52" s="3">
         <v>3500</v>
@@ -2970,25 +3089,28 @@
         <v>3500</v>
       </c>
       <c r="O52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P52" s="3">
         <v>3400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3600</v>
       </c>
-      <c r="S52" s="3" t="s">
+      <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>837300</v>
+      </c>
+      <c r="E54" s="3">
         <v>853400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>841600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>841800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>790400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>689600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>679600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>660700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>644700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>642600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>631900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>597600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>566800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>593800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>535800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>518000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>515400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>521000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,64 +3272,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E57" s="3">
         <v>65700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>69100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>77000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>82600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>78300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>79300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>68800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>69300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>73500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>71700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>65000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>51900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>68500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>71700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>63300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>57000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3217,7 +3350,7 @@
         <v>7000</v>
       </c>
       <c r="H58" s="3">
-        <v>2300</v>
+        <v>7000</v>
       </c>
       <c r="I58" s="3">
         <v>2300</v>
@@ -3228,8 +3361,8 @@
       <c r="K58" s="3">
         <v>2300</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
+      <c r="L58" s="3">
+        <v>2300</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
@@ -3237,8 +3370,8 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3255,232 +3388,247 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>71900</v>
+      </c>
+      <c r="E59" s="3">
         <v>65200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>59300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>59000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>55100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>52500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>49400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>46600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>54900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>47000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>41000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>38200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>28300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>29800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>25800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>28100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>29300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>142900</v>
+      </c>
+      <c r="E60" s="3">
         <v>137900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>135400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>142900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>144700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>133100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>131000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>117700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>126500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>120600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>112600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>103200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>80200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>98300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>97500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>91400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>86300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>311900</v>
+      </c>
+      <c r="E61" s="3">
         <v>340300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>342000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>343600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>300900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>222600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>225600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>229100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>228900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>229400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>231200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>209700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>216100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>222400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>169600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>162200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>166900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>176600</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E62" s="3">
         <v>55700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>54700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>52800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>52100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>50100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>50800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>50100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>32500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>37000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>38100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>37300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>34900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>48500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>49700</v>
-      </c>
-      <c r="R62" s="3">
-        <v>50100</v>
       </c>
       <c r="S62" s="3">
         <v>50100</v>
       </c>
       <c r="T62" s="3">
+        <v>50100</v>
+      </c>
+      <c r="U62" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>508000</v>
+      </c>
+      <c r="E66" s="3">
         <v>533900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>532000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>539400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>497600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>405800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>407400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>396900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>387900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>387000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>381900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>350300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>331200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>369200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>316800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>303700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>303300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>309900</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>241700</v>
+      </c>
+      <c r="E72" s="3">
         <v>232100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>225600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>220500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>212600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>203700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>195400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>187600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>180400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>179400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>175200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>173700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>161400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>151900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>147200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>143400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>141300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>140000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>329300</v>
+      </c>
+      <c r="E76" s="3">
         <v>319400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>309600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>302400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>292800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>283800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>272200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>263800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>256800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>255600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>250000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>247300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>235600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>224600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>218900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>214300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>212100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E81" s="3">
         <v>6500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>9500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4433,55 +4631,58 @@
         <v>7100</v>
       </c>
       <c r="E83" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="F83" s="3">
         <v>7300</v>
       </c>
       <c r="G83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="H83" s="3">
         <v>7600</v>
-      </c>
-      <c r="H83" s="3">
-        <v>7000</v>
       </c>
       <c r="I83" s="3">
         <v>7000</v>
       </c>
       <c r="J83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K83" s="3">
         <v>6800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6700</v>
-      </c>
-      <c r="L83" s="3">
-        <v>6300</v>
       </c>
       <c r="M83" s="3">
         <v>6300</v>
       </c>
       <c r="N83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="O83" s="3">
         <v>6000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E89" s="3">
         <v>4900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-12000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>31000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>12000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>15900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>10300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>11100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>13200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>15800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-9400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-80200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-35100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-67200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>41700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>82100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-1600</v>
       </c>
       <c r="K100" s="3">
         <v>-1600</v>
       </c>
       <c r="L100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M100" s="3">
         <v>-2200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>21000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>52500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>6700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6800</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-10100</v>
       </c>
       <c r="T100" s="3">
         <v>-10100</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>-10100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5420,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E102" s="3">
         <v>3700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>26000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>32800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6700</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>1700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>DCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>157200</v>
+      </c>
+      <c r="E8" s="3">
         <v>157800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>150400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>147300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>173500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>186900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>181100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>180500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>172600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>164200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>159800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>154800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>150500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>142300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>138700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>140900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>136300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>142500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>124100</v>
+      </c>
+      <c r="E9" s="3">
         <v>123000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>116900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>114600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>136700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>146800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>142800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>142400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>136900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>131500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>128700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>122800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>123700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>116500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>112600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>114700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>111300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>114700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>107300</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E10" s="3">
         <v>34800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>33500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>32700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>36800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>40100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>38300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>38100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>35700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>32700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>31100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>32000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>26800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>25800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>26100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>26200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>25000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>27800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,29 +1085,32 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1098,37 +1118,40 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>4800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>8300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>1200</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>146500</v>
+      </c>
+      <c r="E17" s="3">
         <v>146200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>140100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>137300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>159800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>171900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>166500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>166900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>159700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>158800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>153100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>149200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>145200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>144800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>131300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>134300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>132000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>134700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>124500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E18" s="3">
         <v>11600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>13700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>15000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>14600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>13600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1356,11 +1390,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1377,116 +1411,122 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E21" s="3">
         <v>18700</v>
-      </c>
-      <c r="E21" s="3">
-        <v>17400</v>
       </c>
       <c r="F21" s="3">
         <v>17400</v>
       </c>
       <c r="G21" s="3">
+        <v>17400</v>
+      </c>
+      <c r="H21" s="3">
         <v>21000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>22600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>21600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>20600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>19600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>13100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>13500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>12400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>10000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>13300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E22" s="3">
         <v>2600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>4400</v>
       </c>
       <c r="J22" s="3">
         <v>4400</v>
@@ -1495,155 +1535,164 @@
         <v>4400</v>
       </c>
       <c r="L22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="M22" s="3">
         <v>3800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E23" s="3">
         <v>9000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>9400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>10200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E26" s="3">
         <v>9700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>7900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E27" s="3">
         <v>9700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>7900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,31 +1936,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1919,11 +1980,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>13000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2064,11 +2134,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2085,96 +2155,102 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E33" s="3">
         <v>9700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>7900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>9500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E35" s="3">
         <v>9700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>7900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>9500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E41" s="3">
         <v>56500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>74600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>70800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>65600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>39600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,244 +2609,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>235000</v>
+      </c>
+      <c r="E43" s="3">
         <v>212100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>203500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>190400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>198800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>173800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>179500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>169900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>156400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>154500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>152500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>146100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>143100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>74100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>78500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>82000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>71600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>76200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>73800</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>138300</v>
+      </c>
+      <c r="E44" s="3">
         <v>129200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>127000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>128600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>119800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>112500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>109800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>109300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>104000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>101100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>101800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>95200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>85900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>122200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>137200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>129400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>127200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>119900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E45" s="3">
         <v>12500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>20000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>17000</v>
-      </c>
-      <c r="J45" s="3">
-        <v>18000</v>
       </c>
       <c r="K45" s="3">
         <v>18000</v>
       </c>
       <c r="L45" s="3">
+        <v>18000</v>
+      </c>
+      <c r="M45" s="3">
         <v>18200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>24100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>23400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>23700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>22600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>22500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>23100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>21600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>22400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>403200</v>
+      </c>
+      <c r="E46" s="3">
         <v>410300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>425100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>401700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>396800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>340800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>312700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>282200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>284100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>282000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>268200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>254500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>221000</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>241800</v>
       </c>
       <c r="R46" s="3">
         <v>241800</v>
       </c>
       <c r="S46" s="3">
+        <v>241800</v>
+      </c>
+      <c r="T46" s="3">
         <v>227600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>225900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>232800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,126 +2919,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>124900</v>
+      </c>
+      <c r="E48" s="3">
         <v>126300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>124100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>131600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>133300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>134300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>131200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>130500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>127200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>107000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>106600</v>
       </c>
       <c r="N48" s="3">
         <v>106600</v>
       </c>
       <c r="O48" s="3">
+        <v>106600</v>
+      </c>
+      <c r="P48" s="3">
         <v>110000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>110300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>114000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>110800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>104900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>101600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>292300</v>
+      </c>
+      <c r="E49" s="3">
         <v>295600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>298800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>302100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>305400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>309300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>240000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>242800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>245400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>248100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>250500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>253500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>229600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>232100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>234700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>179700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>181900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>201900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>186400</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,40 +3167,43 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E52" s="3">
         <v>5200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5500</v>
-      </c>
-      <c r="M52" s="3">
-        <v>3500</v>
       </c>
       <c r="N52" s="3">
         <v>3500</v>
@@ -3092,25 +3212,28 @@
         <v>3500</v>
       </c>
       <c r="P52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q52" s="3">
         <v>3400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3600</v>
       </c>
-      <c r="T52" s="3" t="s">
+      <c r="U52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>825900</v>
+      </c>
+      <c r="E54" s="3">
         <v>837300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>853400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>841600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>841800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>790400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>689600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>679600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>660700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>644700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>642600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>631900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>597600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>566800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>593800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>535800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>518000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>515400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>521000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3403,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E57" s="3">
         <v>64000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>65700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>69100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>77000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>82600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>78300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>79300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>68800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>69300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>73500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>71700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>65000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>51900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>68500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>71700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>63300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>57000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3353,7 +3487,7 @@
         <v>7000</v>
       </c>
       <c r="I58" s="3">
-        <v>2300</v>
+        <v>7000</v>
       </c>
       <c r="J58" s="3">
         <v>2300</v>
@@ -3364,8 +3498,8 @@
       <c r="L58" s="3">
         <v>2300</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
+      <c r="M58" s="3">
+        <v>2300</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
@@ -3373,8 +3507,8 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3391,244 +3525,259 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E59" s="3">
         <v>71900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>65200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>59300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>59000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>55100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>52500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>49400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>46600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>54900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>47000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>41000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>38200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>28300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>29800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>25800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>28100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>29300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E60" s="3">
         <v>142900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>137900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>135400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>142900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>144700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>133100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>131000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>117700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>126500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>120600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>112600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>103200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>80200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>98300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>97500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>91400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>86300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>304300</v>
+      </c>
+      <c r="E61" s="3">
         <v>311900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>340300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>342000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>343600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>300900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>222600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>225600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>229100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>228900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>229400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>231200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>209700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>216100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>222400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>169600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>162200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>166900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>176600</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>52900</v>
+      </c>
+      <c r="E62" s="3">
         <v>53200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>55700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>54700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>52800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>52100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>50100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>50800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>50100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>32500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>37000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>38100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>37300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>34900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>48500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>49700</v>
-      </c>
-      <c r="S62" s="3">
-        <v>50100</v>
       </c>
       <c r="T62" s="3">
         <v>50100</v>
       </c>
       <c r="U62" s="3">
+        <v>50100</v>
+      </c>
+      <c r="V62" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>490300</v>
+      </c>
+      <c r="E66" s="3">
         <v>508000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>533900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>532000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>539400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>497600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>405800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>407400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>396900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>387900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>387000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>381900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>350300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>331200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>369200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>316800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>303700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>303300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>309900</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>248400</v>
+      </c>
+      <c r="E72" s="3">
         <v>241700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>232100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>225600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>220500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>212600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>203700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>195400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>187600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>180400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>179400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>175200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>173700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>161400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>151900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>147200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>143400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>141300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>140000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>335600</v>
+      </c>
+      <c r="E76" s="3">
         <v>329300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>319400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>309600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>302400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>292800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>283800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>272200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>263800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>256800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>255600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>250000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>247300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>235600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>224600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>218900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>214300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>212100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E81" s="3">
         <v>9700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>7900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>9500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="E83" s="3">
         <v>7100</v>
       </c>
       <c r="F83" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="G83" s="3">
         <v>7300</v>
       </c>
       <c r="H83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I83" s="3">
         <v>7600</v>
-      </c>
-      <c r="I83" s="3">
-        <v>7000</v>
       </c>
       <c r="J83" s="3">
         <v>7000</v>
       </c>
       <c r="K83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="L83" s="3">
         <v>6800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6700</v>
-      </c>
-      <c r="M83" s="3">
-        <v>6300</v>
       </c>
       <c r="N83" s="3">
         <v>6300</v>
       </c>
       <c r="O83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="P83" s="3">
         <v>6000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E89" s="3">
         <v>11100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-12000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>31000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>12000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>15900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>10300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>11100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>13200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>15800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-9400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-80200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-35100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-67200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-29000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>41700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>82100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-1600</v>
       </c>
       <c r="L100" s="3">
         <v>-1600</v>
       </c>
       <c r="M100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N100" s="3">
         <v>-2200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>21000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>52500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>6700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6800</v>
-      </c>
-      <c r="T100" s="3">
-        <v>-10100</v>
       </c>
       <c r="U100" s="3">
         <v>-10100</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>-10100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-39500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-18100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>26000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>32800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6700</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>1700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>DCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>160200</v>
+      </c>
+      <c r="E8" s="3">
         <v>157200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>157800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>150400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>147300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>173500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>186900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>181100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>180500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>172600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>164200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>159800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>154800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>150500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>142300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>138700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>140900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>136300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>142500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>123400</v>
+      </c>
+      <c r="E9" s="3">
         <v>124100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>123000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>116900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>114600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>136700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>146800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>142800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>142400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>136900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>131500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>128700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>122800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>123700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>116500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>112600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>114700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>111300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>114700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>107300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E10" s="3">
         <v>33100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>34800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>33500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>32700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>36800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>40100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>38300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>38100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>35700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>32700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>31100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>32000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>26800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>25800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>26100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>26200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>25000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>27800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,32 +1105,35 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1121,37 +1141,40 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>4800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>8300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>1200</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>147100</v>
+      </c>
+      <c r="E17" s="3">
         <v>146500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>146200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>140100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>137300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>159800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>171900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>166500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>166900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>159700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>158800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>153100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>149200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>145200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>144800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>131300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>134300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>132000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>134700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>124500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E18" s="3">
         <v>10700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>11600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>13700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>15000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>14600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>12900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>7800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1414,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1393,11 +1427,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1414,122 +1448,128 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E21" s="3">
         <v>17500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>18700</v>
-      </c>
-      <c r="F21" s="3">
-        <v>17400</v>
       </c>
       <c r="G21" s="3">
         <v>17400</v>
       </c>
       <c r="H21" s="3">
+        <v>17400</v>
+      </c>
+      <c r="I21" s="3">
         <v>21000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>22600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>21600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>20600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>19600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>12300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>13100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>11200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>13500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>12400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>10000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>13300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E22" s="3">
         <v>2800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>4400</v>
       </c>
       <c r="K22" s="3">
         <v>4400</v>
@@ -1538,161 +1578,170 @@
         <v>4400</v>
       </c>
       <c r="M22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="N22" s="3">
         <v>3800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E23" s="3">
         <v>7800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>9000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>10200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E24" s="3">
         <v>1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E26" s="3">
         <v>6700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>7900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E27" s="3">
         <v>6700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>7900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1965,8 +2026,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1983,11 +2044,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>13000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2192,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2137,11 +2207,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2158,99 +2228,105 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E33" s="3">
         <v>6700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>9500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E35" s="3">
         <v>6700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>9500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2574,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E41" s="3">
         <v>17000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>56500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>74600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>70800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>65600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>39600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,256 +2702,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>239700</v>
+      </c>
+      <c r="E43" s="3">
         <v>235000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>212100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>203500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>190400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>198800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>173800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>179500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>169900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>156400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>154500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>152500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>146100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>143100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>74100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>78500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>82000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>71600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>76200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>73800</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>144600</v>
+      </c>
+      <c r="E44" s="3">
         <v>138300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>129200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>127000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>128600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>119800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>112500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>109800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>109300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>104000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>101100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>101800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>95200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>85900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>122200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>137200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>129400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>127200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>119900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E45" s="3">
         <v>12900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>20000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>17000</v>
-      </c>
-      <c r="K45" s="3">
-        <v>18000</v>
       </c>
       <c r="L45" s="3">
         <v>18000</v>
       </c>
       <c r="M45" s="3">
+        <v>18000</v>
+      </c>
+      <c r="N45" s="3">
         <v>18200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>24100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>23400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>23700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>22600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>22500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>23100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>21600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>22400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>410600</v>
+      </c>
+      <c r="E46" s="3">
         <v>403200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>410300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>425100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>401700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>396800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>340800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>312700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>282200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>284100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>282000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>268200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>254500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>221000</v>
-      </c>
-      <c r="R46" s="3">
-        <v>241800</v>
       </c>
       <c r="S46" s="3">
         <v>241800</v>
       </c>
       <c r="T46" s="3">
+        <v>241800</v>
+      </c>
+      <c r="U46" s="3">
         <v>227600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>225900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>232800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,132 +3027,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E48" s="3">
         <v>124900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>126300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>124100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>131600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>133300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>134300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>131200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>130500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>127200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>107000</v>
-      </c>
-      <c r="N48" s="3">
-        <v>106600</v>
       </c>
       <c r="O48" s="3">
         <v>106600</v>
       </c>
       <c r="P48" s="3">
+        <v>106600</v>
+      </c>
+      <c r="Q48" s="3">
         <v>110000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>110300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>114000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>110800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>104900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>101600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>289100</v>
+      </c>
+      <c r="E49" s="3">
         <v>292300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>295600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>298800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>302100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>305400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>309300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>240000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>242800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>245400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>248100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>250500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>253500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>229600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>232100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>234700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>179700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>181900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>201900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>186400</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3179,34 +3299,34 @@
         <v>5400</v>
       </c>
       <c r="E52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F52" s="3">
         <v>5200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5500</v>
-      </c>
-      <c r="N52" s="3">
-        <v>3500</v>
       </c>
       <c r="O52" s="3">
         <v>3500</v>
@@ -3215,25 +3335,28 @@
         <v>3500</v>
       </c>
       <c r="Q52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="R52" s="3">
         <v>3400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3600</v>
       </c>
-      <c r="U52" s="3" t="s">
+      <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>829100</v>
+      </c>
+      <c r="E54" s="3">
         <v>825900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>837300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>853400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>841600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>841800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>790400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>689600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>679600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>660700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>644700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>642600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>631900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>597600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>566800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>593800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>535800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>518000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>515400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>521000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,70 +3534,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>66500</v>
+      </c>
+      <c r="E57" s="3">
         <v>70200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>64000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>65700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>69100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>77000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>82600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>78300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>79300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>68800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>69300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>73500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>71700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>65000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>51900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>68500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>71700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>63300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>57000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3490,7 +3624,7 @@
         <v>7000</v>
       </c>
       <c r="J58" s="3">
-        <v>2300</v>
+        <v>7000</v>
       </c>
       <c r="K58" s="3">
         <v>2300</v>
@@ -3501,8 +3635,8 @@
       <c r="M58" s="3">
         <v>2300</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
+      <c r="N58" s="3">
+        <v>2300</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
@@ -3510,8 +3644,8 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3528,256 +3662,271 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>60100</v>
+      </c>
+      <c r="E59" s="3">
         <v>55800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>71900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>65200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>59300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>59000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>55100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>52500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>49400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>46600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>54900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>47000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>41000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>38200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>28300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>29800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>25800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>28100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>29300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>133600</v>
+      </c>
+      <c r="E60" s="3">
         <v>133000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>142900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>137900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>135400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>142900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>144700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>133100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>131000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>117700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>126500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>120600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>112600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>103200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>80200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>98300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>97500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>91400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>86300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>297700</v>
+      </c>
+      <c r="E61" s="3">
         <v>304300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>311900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>340300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>342000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>343600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>300900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>222600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>225600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>229100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>228900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>229400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>231200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>209700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>216100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>222400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>169600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>162200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>166900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>176600</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E62" s="3">
         <v>52900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>53200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>55700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>54700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>52800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>52100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>50100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>50800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>50100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>32500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>37000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>38100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>37300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>34900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>48500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>49700</v>
-      </c>
-      <c r="T62" s="3">
-        <v>50100</v>
       </c>
       <c r="U62" s="3">
         <v>50100</v>
       </c>
       <c r="V62" s="3">
+        <v>50100</v>
+      </c>
+      <c r="W62" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>483600</v>
+      </c>
+      <c r="E66" s="3">
         <v>490300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>508000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>533900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>532000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>539400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>497600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>405800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>407400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>396900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>387900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>387000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>381900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>350300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>331200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>369200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>316800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>303700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>303300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>309900</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>256800</v>
+      </c>
+      <c r="E72" s="3">
         <v>248400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>241700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>232100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>225600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>220500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>212600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>203700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>195400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>187600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>180400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>179400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>175200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>173700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>161400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>151900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>147200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>143400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>141300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>140000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>345500</v>
+      </c>
+      <c r="E76" s="3">
         <v>335600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>329300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>319400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>309600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>302400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>292800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>283800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>272200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>263800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>256800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>255600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>250000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>247300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>235600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>224600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>218900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>214300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>212100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E81" s="3">
         <v>6700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>9500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5019,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E83" s="3">
         <v>6900</v>
-      </c>
-      <c r="E83" s="3">
-        <v>7100</v>
       </c>
       <c r="F83" s="3">
         <v>7100</v>
       </c>
       <c r="G83" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="H83" s="3">
         <v>7300</v>
       </c>
       <c r="I83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J83" s="3">
         <v>7600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>7000</v>
       </c>
       <c r="K83" s="3">
         <v>7000</v>
       </c>
       <c r="L83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="M83" s="3">
         <v>6800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>6700</v>
-      </c>
-      <c r="N83" s="3">
-        <v>6300</v>
       </c>
       <c r="O83" s="3">
         <v>6300</v>
       </c>
       <c r="P83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="Q83" s="3">
         <v>6000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-23400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>11100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-12000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>31000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>12000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>15900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>10300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>11100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>13200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>15800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5499,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-9400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-80200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-35100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-67200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6042,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-29000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>41700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>82100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5100</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-1600</v>
       </c>
       <c r="M100" s="3">
         <v>-1600</v>
       </c>
       <c r="N100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O100" s="3">
         <v>-2200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>21000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>52500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>6700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-6800</v>
-      </c>
-      <c r="U100" s="3">
-        <v>-10100</v>
       </c>
       <c r="V100" s="3">
         <v>-10100</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>-10100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6172,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-39500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-18100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>26000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>32800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6700</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>1700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>DCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,309 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>163200</v>
+      </c>
+      <c r="E8" s="3">
         <v>160200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>157200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>157800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>150400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>147300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>173500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>186900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>181100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>180500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>172600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>164200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>159800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>154800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>150500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>142300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>138700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>140900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>136300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>142500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>127900</v>
+      </c>
+      <c r="E9" s="3">
         <v>123400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>124100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>123000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>116900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>114600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>136700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>146800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>142800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>142400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>136900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>131500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>128700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>122800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>123700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>116500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>112600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>114700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>111300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>114700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>107300</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E10" s="3">
         <v>36800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>33100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>34800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>33500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>32700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>36800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>40100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>38300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>38100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>35700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>32700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>31100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>32000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>26800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>25800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>26100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>26200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>25000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>27800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +991,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,8 +1057,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,35 +1125,38 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1144,37 +1164,40 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>4800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>8300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>1200</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1261,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1286,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>149900</v>
+      </c>
+      <c r="E17" s="3">
         <v>147100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>146500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>146200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>140100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>137300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>159800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>171900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>166500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>166900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>159700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>158800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>153100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>149200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>145200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>144800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>131300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>134300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>132000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>134700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>124500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E18" s="3">
         <v>13100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>11600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>13700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>15000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>14600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>12900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>7800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,13 +1448,14 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1430,11 +1464,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1451,128 +1485,134 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E21" s="3">
         <v>20100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>17500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>18700</v>
-      </c>
-      <c r="G21" s="3">
-        <v>17400</v>
       </c>
       <c r="H21" s="3">
         <v>17400</v>
       </c>
       <c r="I21" s="3">
+        <v>17400</v>
+      </c>
+      <c r="J21" s="3">
         <v>21000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>22600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>21600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>20600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>19600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>12300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>13100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>11900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>11200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>13500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>12400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>10000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>13300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E22" s="3">
         <v>2900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>4400</v>
       </c>
       <c r="L22" s="3">
         <v>4400</v>
@@ -1581,167 +1621,176 @@
         <v>4400</v>
       </c>
       <c r="N22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="O22" s="3">
         <v>3800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E23" s="3">
         <v>10200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>9000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>1800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1854,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E26" s="3">
         <v>8400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E27" s="3">
         <v>8400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2058,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2029,8 +2090,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2047,11 +2108,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>13000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2065,8 +2126,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,13 +2262,16 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2210,11 +2280,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2231,102 +2301,108 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E33" s="3">
         <v>8400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>9500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2466,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E35" s="3">
         <v>8400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>9500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,73 +2661,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E41" s="3">
         <v>12000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>17000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>56500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>74600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>70800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>65600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>39600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,268 +2795,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>252600</v>
+      </c>
+      <c r="E43" s="3">
         <v>239700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>235000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>212100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>203500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>190400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>198800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>173800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>179500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>169900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>156400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>154500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>152500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>146100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>143100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>74100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>78500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>82000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>71600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>76200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>73800</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>144200</v>
+      </c>
+      <c r="E44" s="3">
         <v>144600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>138300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>129200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>127000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>128600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>119800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>112500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>109800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>109300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>104000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>101100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>101800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>95200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>85900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>122200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>137200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>129400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>127200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>119900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E45" s="3">
         <v>14300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>20000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17000</v>
-      </c>
-      <c r="L45" s="3">
-        <v>18000</v>
       </c>
       <c r="M45" s="3">
         <v>18000</v>
       </c>
       <c r="N45" s="3">
+        <v>18000</v>
+      </c>
+      <c r="O45" s="3">
         <v>18200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>24100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>23400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>23700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>22600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>22500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>23100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>21600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>22400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>420900</v>
+      </c>
+      <c r="E46" s="3">
         <v>410600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>403200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>410300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>425100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>401700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>396800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>340800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>312700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>282200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>284100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>282000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>268200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>254500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>221000</v>
-      </c>
-      <c r="S46" s="3">
-        <v>241800</v>
       </c>
       <c r="T46" s="3">
         <v>241800</v>
       </c>
       <c r="U46" s="3">
+        <v>241800</v>
+      </c>
+      <c r="V46" s="3">
         <v>227600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>225900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>232800</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,138 +3135,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E48" s="3">
         <v>124000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>124900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>126300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>124100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>131600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>133300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>134300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>131200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>130500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>127200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>107000</v>
-      </c>
-      <c r="O48" s="3">
-        <v>106600</v>
       </c>
       <c r="P48" s="3">
         <v>106600</v>
       </c>
       <c r="Q48" s="3">
+        <v>106600</v>
+      </c>
+      <c r="R48" s="3">
         <v>110000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>110300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>114000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>110800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>104900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>101600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>285800</v>
+      </c>
+      <c r="E49" s="3">
         <v>289100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>292300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>295600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>298800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>302100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>305400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>309300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>240000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>242800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>245400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>248100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>250500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>253500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>229600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>232100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>234700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>179700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>181900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>201900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>186400</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,46 +3407,49 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="E52" s="3">
         <v>5400</v>
       </c>
       <c r="F52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G52" s="3">
         <v>5200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5500</v>
-      </c>
-      <c r="O52" s="3">
-        <v>3500</v>
       </c>
       <c r="P52" s="3">
         <v>3500</v>
@@ -3338,25 +3458,28 @@
         <v>3500</v>
       </c>
       <c r="R52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="S52" s="3">
         <v>3400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3600</v>
       </c>
-      <c r="V52" s="3" t="s">
+      <c r="W52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3543,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>837800</v>
+      </c>
+      <c r="E54" s="3">
         <v>829100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>825900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>837300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>853400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>841600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>841800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>790400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>689600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>679600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>660700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>644700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>642600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>631900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>597600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>566800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>593800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>535800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>518000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>515400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>521000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,73 +3665,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E57" s="3">
         <v>66500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>70200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>64000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>65700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>69100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>77000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>82600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>78300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>79300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>68800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>69300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>73500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>71700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>65000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>51900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>68500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>71700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>63300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>57000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3627,7 +3761,7 @@
         <v>7000</v>
       </c>
       <c r="K58" s="3">
-        <v>2300</v>
+        <v>7000</v>
       </c>
       <c r="L58" s="3">
         <v>2300</v>
@@ -3638,8 +3772,8 @@
       <c r="N58" s="3">
         <v>2300</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
+      <c r="O58" s="3">
+        <v>2300</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
@@ -3647,8 +3781,8 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3665,268 +3799,283 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>61900</v>
+      </c>
+      <c r="E59" s="3">
         <v>60100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>55800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>71900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>65200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>59300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>59000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>55100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>52500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>49400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>46600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>54900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>47000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>41000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>38200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>28300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>29800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>25800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>28100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>29300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>134200</v>
+      </c>
+      <c r="E60" s="3">
         <v>133600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>133000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>142900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>137900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>135400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>142900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>144700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>133100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>131000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>117700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>126500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>120600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>112600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>103200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>80200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>98300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>97500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>91400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>86300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>291000</v>
+      </c>
+      <c r="E61" s="3">
         <v>297700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>304300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>311900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>340300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>342000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>343600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>300900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>222600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>225600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>229100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>228900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>229400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>231200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>209700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>216100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>222400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>169600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>162200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>166900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>176600</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E62" s="3">
         <v>52300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>52900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>53200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>55700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>54700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>52800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>52100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>50100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>50800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>50100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>32500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>37000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>38100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>37300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>34900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>48500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>49700</v>
-      </c>
-      <c r="U62" s="3">
-        <v>50100</v>
       </c>
       <c r="V62" s="3">
         <v>50100</v>
       </c>
       <c r="W62" s="3">
+        <v>50100</v>
+      </c>
+      <c r="X62" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4275,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>478800</v>
+      </c>
+      <c r="E66" s="3">
         <v>483600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>490300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>508000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>533900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>532000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>539400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>497600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>405800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>407400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>396900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>387900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>387000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>381900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>350300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>331200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>369200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>316800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>303700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>303300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>309900</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4573,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4641,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>266400</v>
+      </c>
+      <c r="E72" s="3">
         <v>256800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>248400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>241700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>232100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>225600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>220500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>212600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>203700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>195400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>187600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>180400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>179400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>175200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>173700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>161400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>151900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>147200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>143400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>141300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>140000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4913,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>358900</v>
+      </c>
+      <c r="E76" s="3">
         <v>345500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>335600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>329300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>319400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>309600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>302400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>292800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>283800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>272200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>263800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>256800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>255600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>250000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>247300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>235600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>224600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>218900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>214300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>212100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5049,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E81" s="3">
         <v>8400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>9500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,73 +5218,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E83" s="3">
         <v>7000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>7100</v>
       </c>
       <c r="G83" s="3">
         <v>7100</v>
       </c>
       <c r="H83" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="I83" s="3">
         <v>7300</v>
       </c>
       <c r="J83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K83" s="3">
         <v>7600</v>
-      </c>
-      <c r="K83" s="3">
-        <v>7000</v>
       </c>
       <c r="L83" s="3">
         <v>7000</v>
       </c>
       <c r="M83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N83" s="3">
         <v>6800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>6700</v>
-      </c>
-      <c r="O83" s="3">
-        <v>6300</v>
       </c>
       <c r="P83" s="3">
         <v>6300</v>
       </c>
       <c r="Q83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="R83" s="3">
         <v>6000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,8 +5624,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5419,64 +5636,67 @@
         <v>5500</v>
       </c>
       <c r="E89" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-23400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>11100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-12000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>31000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>12800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>15900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>10300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>8100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>11100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>13200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>15800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5720,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-9400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5922,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-80200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-35100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-67200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-9400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-7700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6018,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6084,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,73 +6288,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-29000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>41700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>82100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-1600</v>
       </c>
       <c r="N100" s="3">
         <v>-1600</v>
       </c>
       <c r="O100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="P100" s="3">
         <v>-2200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>21000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-7400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>52500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>6700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-6800</v>
-      </c>
-      <c r="V100" s="3">
-        <v>-10100</v>
       </c>
       <c r="W100" s="3">
         <v>-10100</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>-10100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,69 +6424,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-39500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-18100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>26000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>32800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6700</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>1700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>DCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,309 +665,322 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>164800</v>
+      </c>
+      <c r="E8" s="3">
         <v>163200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>160200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>157200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>157800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>150400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>147300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>173500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>186900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>181100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>180500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>172600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>164200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>159800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>154800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>150500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>142300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>138700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>140900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>136300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>142500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>127600</v>
+      </c>
+      <c r="E9" s="3">
         <v>127900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>123400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>124100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>123000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>116900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>114600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>136700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>146800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>142800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>142400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>136900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>131500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>128700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>122800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>123700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>116500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>112600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>114700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>111300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>114700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>107300</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E10" s="3">
         <v>35300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>36800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>33100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>34800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>33500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>32700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>36800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>40100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>38300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>38100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>35700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>32700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>31100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>32000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>26800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>25800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>26100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>26200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>25000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>27800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -992,8 +1005,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1074,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,38 +1145,41 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1167,37 +1187,40 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>4800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>8300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>1200</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1264,8 +1287,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,144 +1313,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E17" s="3">
         <v>149900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>147100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>146500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>146200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>140100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>137300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>159800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>171900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>166500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>166900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>159700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>158800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>153100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>149200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>145200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>144800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>131300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>134300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>132000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>134700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>124500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E18" s="3">
         <v>13300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>13100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>11600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>13700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>14600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>12900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>7800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,17 +1482,18 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>132600</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1467,11 +1501,11 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1488,105 +1522,111 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>151700</v>
+      </c>
+      <c r="E21" s="3">
         <v>20800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>20100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>17500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>18700</v>
-      </c>
-      <c r="H21" s="3">
-        <v>17400</v>
       </c>
       <c r="I21" s="3">
         <v>17400</v>
       </c>
       <c r="J21" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K21" s="3">
         <v>21000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>22600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>21600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>20600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>19600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>12300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>13100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>11900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>11200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>13500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>12400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>10000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>13300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1594,28 +1634,28 @@
         <v>2800</v>
       </c>
       <c r="E22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F22" s="3">
         <v>2900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>4400</v>
       </c>
       <c r="M22" s="3">
         <v>4400</v>
@@ -1624,173 +1664,182 @@
         <v>4400</v>
       </c>
       <c r="O22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="P22" s="3">
         <v>3800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>141700</v>
+      </c>
+      <c r="E23" s="3">
         <v>10800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>9000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E24" s="3">
         <v>1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,144 +1906,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>110800</v>
+      </c>
+      <c r="E26" s="3">
         <v>9600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>110800</v>
+      </c>
+      <c r="E27" s="3">
         <v>9600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2119,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2093,8 +2154,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2111,11 +2172,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>13000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2129,8 +2190,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2261,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,17 +2332,20 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-132600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2283,11 +2353,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2304,105 +2374,111 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>110800</v>
+      </c>
+      <c r="E33" s="3">
         <v>9600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>9500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,149 +2545,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>110800</v>
+      </c>
+      <c r="E35" s="3">
         <v>9600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>9500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2721,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,76 +2748,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>76300</v>
+      </c>
+      <c r="E41" s="3">
         <v>9000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>56500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>74600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>70800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>65600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>39600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2798,280 +2888,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>248700</v>
+      </c>
+      <c r="E43" s="3">
         <v>252600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>239700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>235000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>212100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>203500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>190400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>198800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>173800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>179500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>169900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>156400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>154500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>152500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>146100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>143100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>74100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>78500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>82000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>71600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>76200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>73800</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>150900</v>
+      </c>
+      <c r="E44" s="3">
         <v>144200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>144600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>138300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>129200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>127000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>128600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>119800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>112500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>109800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>109300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>104000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>101100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>101800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>95200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>85900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>122200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>137200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>129400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>127200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>119900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E45" s="3">
         <v>15200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>20000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17000</v>
-      </c>
-      <c r="M45" s="3">
-        <v>18000</v>
       </c>
       <c r="N45" s="3">
         <v>18000</v>
       </c>
       <c r="O45" s="3">
+        <v>18000</v>
+      </c>
+      <c r="P45" s="3">
         <v>18200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>24100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>23400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>23700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>22600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>22500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>23100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>21600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>22400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>492600</v>
+      </c>
+      <c r="E46" s="3">
         <v>420900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>410600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>403200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>410300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>425100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>401700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>396800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>340800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>312700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>282200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>284100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>282000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>268200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>254500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>221000</v>
-      </c>
-      <c r="T46" s="3">
-        <v>241800</v>
       </c>
       <c r="U46" s="3">
         <v>241800</v>
       </c>
       <c r="V46" s="3">
+        <v>241800</v>
+      </c>
+      <c r="W46" s="3">
         <v>227600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>225900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>232800</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3138,144 +3243,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>135700</v>
+      </c>
+      <c r="E48" s="3">
         <v>126000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>124000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>124900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>126300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>124100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>131600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>133300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>134300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>131200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>130500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>127200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>107000</v>
-      </c>
-      <c r="P48" s="3">
-        <v>106600</v>
       </c>
       <c r="Q48" s="3">
         <v>106600</v>
       </c>
       <c r="R48" s="3">
+        <v>106600</v>
+      </c>
+      <c r="S48" s="3">
         <v>110000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>110300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>114000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>110800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>104900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>101600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>345500</v>
+      </c>
+      <c r="E49" s="3">
         <v>285800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>289100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>292300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>295600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>298800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>302100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>305400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>309300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>240000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>242800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>245400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>248100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>250500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>253500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>229600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>232100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>234700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>179700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>181900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>201900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>186400</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3456,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,8 +3527,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3419,40 +3539,40 @@
         <v>5000</v>
       </c>
       <c r="E52" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="F52" s="3">
         <v>5400</v>
       </c>
       <c r="G52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H52" s="3">
         <v>5200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5500</v>
-      </c>
-      <c r="P52" s="3">
-        <v>3500</v>
       </c>
       <c r="Q52" s="3">
         <v>3500</v>
@@ -3461,25 +3581,28 @@
         <v>3500</v>
       </c>
       <c r="S52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="T52" s="3">
         <v>3400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3600</v>
       </c>
-      <c r="W52" s="3" t="s">
+      <c r="X52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,76 +3669,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>978700</v>
+      </c>
+      <c r="E54" s="3">
         <v>837800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>829100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>825900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>837300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>853400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>841600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>841800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>790400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>689600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>679600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>660700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>644700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>642600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>631900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>597600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>566800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>593800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>535800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>518000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>515400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>521000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3769,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,76 +3796,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E57" s="3">
         <v>65300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>66500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>70200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>64000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>65700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>69100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>77000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>82600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>78300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>79300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>68800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>69300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>73500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>71700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>65000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>51900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>68500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>71700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>63300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>57000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3764,7 +3898,7 @@
         <v>7000</v>
       </c>
       <c r="L58" s="3">
-        <v>2300</v>
+        <v>7000</v>
       </c>
       <c r="M58" s="3">
         <v>2300</v>
@@ -3775,8 +3909,8 @@
       <c r="O58" s="3">
         <v>2300</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
+      <c r="P58" s="3">
+        <v>2300</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
@@ -3784,8 +3918,8 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3802,280 +3936,295 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>89500</v>
+      </c>
+      <c r="E59" s="3">
         <v>61900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>60100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>55800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>71900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>65200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>59300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>59000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>55100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>52500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>49400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>46600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>54900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>47000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>41000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>38200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>28300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>29800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>25800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>28100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>29300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>162600</v>
+      </c>
+      <c r="E60" s="3">
         <v>134200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>133600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>133000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>142900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>137900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>135400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>142900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>144700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>133100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>131000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>117700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>126500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>120600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>112600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>103200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>80200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>98300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>97500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>91400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>86300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>279400</v>
+      </c>
+      <c r="E61" s="3">
         <v>291000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>297700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>304300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>311900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>340300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>342000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>343600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>300900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>222600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>225600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>229100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>228900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>229400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>231200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>209700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>216100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>222400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>169600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>162200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>166900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>176600</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E62" s="3">
         <v>53600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>52300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>52900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>53200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>55700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>54700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>52800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>52100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>50100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>50800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>50100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>32500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>37000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>38100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>37300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>34900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>48500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>49700</v>
-      </c>
-      <c r="V62" s="3">
-        <v>50100</v>
       </c>
       <c r="W62" s="3">
         <v>50100</v>
       </c>
       <c r="X62" s="3">
+        <v>50100</v>
+      </c>
+      <c r="Y62" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4291,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4362,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,76 +4433,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>504100</v>
+      </c>
+      <c r="E66" s="3">
         <v>478800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>483600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>490300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>508000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>533900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>532000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>539400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>497600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>405800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>407400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>396900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>387900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>387000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>381900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>350300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>331200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>369200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>316800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>303700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>303300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>309900</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4533,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4602,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4673,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4576,8 +4744,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,76 +4815,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>377300</v>
+      </c>
+      <c r="E72" s="3">
         <v>266400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>256800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>248400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>241700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>232100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>225600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>220500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>212600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>203700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>195400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>187600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>180400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>179400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>175200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>173700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>161400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>151900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>147200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>143400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>141300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>140000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +4957,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5028,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,76 +5099,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>474600</v>
+      </c>
+      <c r="E76" s="3">
         <v>358900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>345500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>335600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>329300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>319400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>309600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>302400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>292800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>283800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>272200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>263800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>256800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>255600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>250000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>247300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>235600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>224600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>218900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>214300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>212100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,149 +5241,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>110800</v>
+      </c>
+      <c r="E81" s="3">
         <v>9600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>9500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,76 +5417,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E83" s="3">
         <v>7200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6900</v>
-      </c>
-      <c r="G83" s="3">
-        <v>7100</v>
       </c>
       <c r="H83" s="3">
         <v>7100</v>
       </c>
       <c r="I83" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="J83" s="3">
         <v>7300</v>
       </c>
       <c r="K83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="L83" s="3">
         <v>7600</v>
-      </c>
-      <c r="L83" s="3">
-        <v>7000</v>
       </c>
       <c r="M83" s="3">
         <v>7000</v>
       </c>
       <c r="N83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="O83" s="3">
         <v>6800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>6700</v>
-      </c>
-      <c r="P83" s="3">
-        <v>6300</v>
       </c>
       <c r="Q83" s="3">
         <v>6300</v>
       </c>
       <c r="R83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="S83" s="3">
         <v>6000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>5400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5557,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5628,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5699,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5770,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,76 +5841,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5500</v>
+        <v>11700</v>
       </c>
       <c r="E89" s="3">
         <v>5500</v>
       </c>
       <c r="F89" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G89" s="3">
         <v>-23400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>11100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-12000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>31000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>12800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>15900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>10300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>8100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>11100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>13200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>15800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,76 +5941,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-9400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6081,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,76 +6152,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>67600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-80200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-35100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-67200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-9400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-7700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6252,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6087,8 +6321,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6392,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6463,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,76 +6534,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-29000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>41700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>82100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-1600</v>
       </c>
       <c r="O100" s="3">
         <v>-1600</v>
       </c>
       <c r="P100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>21000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-7400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>52500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>6700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-6800</v>
-      </c>
-      <c r="W100" s="3">
-        <v>-10100</v>
       </c>
       <c r="X100" s="3">
         <v>-10100</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>-10100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6427,72 +6676,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-39500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-18100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>26000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>32800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6700</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>1700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>DCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,322 +665,335 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>163500</v>
+      </c>
+      <c r="E8" s="3">
         <v>164800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>163200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>160200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>157200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>157800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>150400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>147300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>173500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>186900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>181100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>180500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>172600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>164200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>159800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>154800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>150500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>142300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>138700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>140900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>136300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>142500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E9" s="3">
         <v>127600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>127900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>123400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>124100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>123000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>116900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>114600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>136700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>146800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>142800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>142400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>136900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>131500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>128700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>122800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>123700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>116500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>112600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>114700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>111300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>114700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>107300</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E10" s="3">
         <v>37200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>35300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>36800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>33100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>34800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>33500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>32700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>36800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>40100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>38300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>38100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>35700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>32700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>31100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>32000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>26800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>25800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>26100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>26200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>25000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>27800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1006,8 +1019,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1077,8 +1091,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1148,41 +1165,44 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1190,37 +1210,40 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>4800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>8300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>100</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>1200</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1290,8 +1313,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1314,150 +1340,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>154400</v>
+      </c>
+      <c r="E17" s="3">
         <v>153000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>149900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>147100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>146500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>146200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>140100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>137300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>159800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>171900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>166500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>166900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>159700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>158800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>153100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>149200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>145200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>144800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>131300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>134300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>132000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>134700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>124500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E18" s="3">
         <v>11800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>13300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>13100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>11600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>15000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>14600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>12900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>7400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>7800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1483,20 +1516,21 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>132600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1504,11 +1538,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1525,140 +1559,146 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E21" s="3">
         <v>151700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>20800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>20100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>17500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>18700</v>
-      </c>
-      <c r="I21" s="3">
-        <v>17400</v>
       </c>
       <c r="J21" s="3">
         <v>17400</v>
       </c>
       <c r="K21" s="3">
+        <v>17400</v>
+      </c>
+      <c r="L21" s="3">
         <v>21000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>22600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>21600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>20600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>19600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>12300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>13100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>11900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>11200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>13500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>12400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>10000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>13300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="E22" s="3">
         <v>2800</v>
       </c>
       <c r="F22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G22" s="3">
         <v>2900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5200</v>
-      </c>
-      <c r="M22" s="3">
-        <v>4400</v>
       </c>
       <c r="N22" s="3">
         <v>4400</v>
@@ -1667,179 +1707,188 @@
         <v>4400</v>
       </c>
       <c r="P22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="Q22" s="3">
         <v>3800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E23" s="3">
         <v>141700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>10200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>10200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>5800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E24" s="3">
         <v>30800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1909,150 +1958,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E26" s="3">
         <v>110800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E27" s="3">
         <v>110800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2122,8 +2180,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2157,8 +2218,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2175,11 +2236,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>13000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2193,8 +2254,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2264,8 +2328,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2335,20 +2402,23 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-132600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2356,11 +2426,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2377,108 +2447,114 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E33" s="3">
         <v>110800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>9500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2548,155 +2624,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E35" s="3">
         <v>110800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>9500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2722,8 +2807,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2749,79 +2835,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E41" s="3">
         <v>76300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>56500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>74600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>70800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>65600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>39600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2891,150 +2981,159 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>270000</v>
+      </c>
+      <c r="E43" s="3">
         <v>248700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>252600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>239700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>235000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>212100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>203500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>190400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>198800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>173800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>179500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>169900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>156400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>154500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>152500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>146100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>143100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>74100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>78500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>82000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>71600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>76200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>73800</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>159800</v>
+      </c>
+      <c r="E44" s="3">
         <v>150900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>144200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>144600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>138300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>129200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>127000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>128600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>119800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>112500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>109800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>109300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>104000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>101100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>101800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>95200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>85900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>122200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>137200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>129400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>127200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>119900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3042,141 +3141,147 @@
         <v>16600</v>
       </c>
       <c r="E45" s="3">
+        <v>16600</v>
+      </c>
+      <c r="F45" s="3">
         <v>15200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>20000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>17000</v>
-      </c>
-      <c r="N45" s="3">
-        <v>18000</v>
       </c>
       <c r="O45" s="3">
         <v>18000</v>
       </c>
       <c r="P45" s="3">
+        <v>18000</v>
+      </c>
+      <c r="Q45" s="3">
         <v>18200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>24100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>23400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>23700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>22600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>22500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>23100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>21600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>22400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>465700</v>
+      </c>
+      <c r="E46" s="3">
         <v>492600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>420900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>410600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>403200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>410300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>425100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>401700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>396800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>340800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>312700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>282200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>284100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>282000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>268200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>254500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>221000</v>
-      </c>
-      <c r="U46" s="3">
-        <v>241800</v>
       </c>
       <c r="V46" s="3">
         <v>241800</v>
       </c>
       <c r="W46" s="3">
+        <v>241800</v>
+      </c>
+      <c r="X46" s="3">
         <v>227600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>225900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>232800</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3246,150 +3351,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>142800</v>
+      </c>
+      <c r="E48" s="3">
         <v>135700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>126000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>124000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>124900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>126300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>124100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>131600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>133300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>134300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>131200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>130500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>127200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>107000</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>106600</v>
       </c>
       <c r="R48" s="3">
         <v>106600</v>
       </c>
       <c r="S48" s="3">
+        <v>106600</v>
+      </c>
+      <c r="T48" s="3">
         <v>110000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>110300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>114000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>110800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>104900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>101600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>341800</v>
+      </c>
+      <c r="E49" s="3">
         <v>345500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>285800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>289100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>292300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>295600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>298800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>302100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>305400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>309300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>240000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>242800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>245400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>248100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>250500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>253500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>229600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>232100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>234700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>179700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>181900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>201900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>186400</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3459,8 +3573,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3530,52 +3647,55 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="E52" s="3">
         <v>5000</v>
       </c>
       <c r="F52" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="G52" s="3">
         <v>5400</v>
       </c>
       <c r="H52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I52" s="3">
         <v>5200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5500</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>3500</v>
       </c>
       <c r="R52" s="3">
         <v>3500</v>
@@ -3584,25 +3704,28 @@
         <v>3500</v>
       </c>
       <c r="T52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="U52" s="3">
         <v>3400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3600</v>
       </c>
-      <c r="X52" s="3" t="s">
+      <c r="Y52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3672,79 +3795,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>959300</v>
+      </c>
+      <c r="E54" s="3">
         <v>978700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>837800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>829100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>825900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>837300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>853400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>841600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>841800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>790400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>689600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>679600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>660700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>644700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>642600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>631900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>597600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>566800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>593800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>535800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>518000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>515400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>521000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3770,8 +3899,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3797,79 +3927,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>74800</v>
+      </c>
+      <c r="E57" s="3">
         <v>66100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>65300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>66500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>70200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>64000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>65700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>69100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>77000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>82600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>78300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>79300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>68800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>69300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>73500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>71700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>65000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>51900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>68500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>71700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>63300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>57000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3901,7 +4035,7 @@
         <v>7000</v>
       </c>
       <c r="M58" s="3">
-        <v>2300</v>
+        <v>7000</v>
       </c>
       <c r="N58" s="3">
         <v>2300</v>
@@ -3912,8 +4046,8 @@
       <c r="P58" s="3">
         <v>2300</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
+      <c r="Q58" s="3">
+        <v>2300</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
@@ -3921,8 +4055,8 @@
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -3939,292 +4073,307 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>76800</v>
+      </c>
+      <c r="E59" s="3">
         <v>89500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>61900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>60100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>55800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>71900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>65200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>59300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>59000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>55100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>52500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>49400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>46600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>54900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>47000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>41000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>38200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>28300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>29800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>25800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>28100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>29300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>158600</v>
+      </c>
+      <c r="E60" s="3">
         <v>162600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>134200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>133600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>133000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>142900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>137900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>135400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>142900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>144700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>133100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>131000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>117700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>126500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>120600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>112600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>103200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>80200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>98300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>97500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>91400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>86300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>247700</v>
+      </c>
+      <c r="E61" s="3">
         <v>279400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>291000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>297700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>304300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>311900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>340300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>342000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>343600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>300900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>222600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>225600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>229100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>228900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>229400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>231200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>209700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>216100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>222400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>169600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>162200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>166900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>176600</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E62" s="3">
         <v>62200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>53600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>52300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>52900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>53200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>55700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>54700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>52800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>52100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>50100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>50800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>50100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>32500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>37000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>38100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>37300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>34900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>48500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>49700</v>
-      </c>
-      <c r="W62" s="3">
-        <v>50100</v>
       </c>
       <c r="X62" s="3">
         <v>50100</v>
       </c>
       <c r="Y62" s="3">
+        <v>50100</v>
+      </c>
+      <c r="Z62" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4294,8 +4443,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4365,8 +4517,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4436,79 +4591,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>471600</v>
+      </c>
+      <c r="E66" s="3">
         <v>504100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>478800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>483600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>490300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>508000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>533900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>532000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>539400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>497600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>405800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>407400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>396900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>387900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>387000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>381900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>350300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>331200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>369200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>316800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>303700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>303300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>309900</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4534,8 +4695,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4605,8 +4767,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4676,8 +4841,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4747,8 +4915,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4818,79 +4989,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>385400</v>
+      </c>
+      <c r="E72" s="3">
         <v>377300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>266400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>256800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>248400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>241700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>232100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>225600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>220500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>212600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>203700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>195400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>187600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>180400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>179400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>175200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>173700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>161400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>151900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>147200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>143400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>141300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>140000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4960,8 +5137,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5031,8 +5211,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5102,79 +5285,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>487700</v>
+      </c>
+      <c r="E76" s="3">
         <v>474600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>358900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>345500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>335600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>329300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>319400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>309600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>302400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>292800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>283800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>272200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>263800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>256800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>255600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>250000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>247300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>235600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>224600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>218900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>214300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>212100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5244,155 +5433,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E81" s="3">
         <v>110800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>9500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5418,79 +5616,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E83" s="3">
         <v>7300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>7100</v>
       </c>
       <c r="I83" s="3">
         <v>7100</v>
       </c>
       <c r="J83" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="K83" s="3">
         <v>7300</v>
       </c>
       <c r="L83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="M83" s="3">
         <v>7600</v>
-      </c>
-      <c r="M83" s="3">
-        <v>7000</v>
       </c>
       <c r="N83" s="3">
         <v>7000</v>
       </c>
       <c r="O83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="P83" s="3">
         <v>6800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>6700</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>6300</v>
       </c>
       <c r="R83" s="3">
         <v>6300</v>
       </c>
       <c r="S83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="T83" s="3">
         <v>6000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>5800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>5400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5560,8 +5762,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5631,8 +5836,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5702,8 +5910,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5773,8 +5984,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5844,79 +6058,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E89" s="3">
         <v>11700</v>
-      </c>
-      <c r="E89" s="3">
-        <v>5500</v>
       </c>
       <c r="F89" s="3">
         <v>5500</v>
       </c>
       <c r="G89" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H89" s="3">
         <v>-23400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>11100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-12000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>31000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>12800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>15900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>10300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>8100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>11100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>13200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>15800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5942,79 +6162,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-9400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6084,8 +6308,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6155,79 +6382,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E94" s="3">
         <v>67600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-80200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-35100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-67200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-9400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-7700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6253,8 +6486,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6324,8 +6558,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6395,8 +6632,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6466,8 +6706,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6537,79 +6780,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-11600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-29000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>41700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>82100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-1600</v>
       </c>
       <c r="P100" s="3">
         <v>-1600</v>
       </c>
       <c r="Q100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="R100" s="3">
         <v>-2200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>21000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-7400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-6900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>52500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>6700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-6800</v>
-      </c>
-      <c r="X100" s="3">
-        <v>-10100</v>
       </c>
       <c r="Y100" s="3">
         <v>-10100</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>-10100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6679,75 +6928,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="E102" s="3">
         <v>67300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-39500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-18100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>26000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>32800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6700</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>1700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,335 +665,348 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
         <v>44653</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>174200</v>
+      </c>
+      <c r="E8" s="3">
         <v>163500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>164800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>163200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>160200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>157200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>157800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>150400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>147300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>173500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>186900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>181100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>180500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>172600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>164200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>159800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>154800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>150500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>142300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>138700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>140900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>136300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>142500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>139000</v>
+      </c>
+      <c r="E9" s="3">
         <v>131000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>127600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>127900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>123400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>124100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>123000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>116900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>114600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>136700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>146800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>142800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>142400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>136900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>131500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>128700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>122800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>123700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>116500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>112600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>114700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>111300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>114700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>107300</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E10" s="3">
         <v>32500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>37200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>35300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>36800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>33100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>34800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>33500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>32700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>36800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>40100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>38300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>38100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>35700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>32700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>31100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>32000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>26800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>25800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>26100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>26200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>25000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>27800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1020,8 +1033,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1094,8 +1108,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1168,44 +1185,47 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>900</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>900</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1213,37 +1233,40 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>4800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>8300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>100</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>1200</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1316,8 +1339,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1341,156 +1367,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>154400</v>
+        <v>166400</v>
       </c>
       <c r="E17" s="3">
+        <v>151400</v>
+      </c>
+      <c r="F17" s="3">
         <v>153000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>149900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>147100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>146500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>146200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>140100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>137300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>159800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>171900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>166500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>166900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>159700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>158800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>153100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>149200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>145200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>144800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>131300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>134300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>132000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>134700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>124500</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9100</v>
+        <v>7800</v>
       </c>
       <c r="E18" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F18" s="3">
         <v>11800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>13300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>13100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>15000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>14600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>12900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>7400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>6600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>7800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1517,23 +1550,24 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>132600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1541,11 +1575,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1562,146 +1596,152 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
       <c r="Y20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E21" s="3">
         <v>19900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>151700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>20800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>20100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>17500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>18700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>17400</v>
       </c>
       <c r="K21" s="3">
         <v>17400</v>
       </c>
       <c r="L21" s="3">
+        <v>17400</v>
+      </c>
+      <c r="M21" s="3">
         <v>21000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>22600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>21600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>20600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>19600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>12300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>13100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>11900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>11200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>13500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>12400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>10000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>13300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E22" s="3">
         <v>2400</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2800</v>
       </c>
       <c r="F22" s="3">
         <v>2800</v>
       </c>
       <c r="G22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H22" s="3">
         <v>2900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>4400</v>
       </c>
       <c r="O22" s="3">
         <v>4400</v>
@@ -1710,185 +1750,194 @@
         <v>4400</v>
       </c>
       <c r="Q22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="R22" s="3">
         <v>3800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>2000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E23" s="3">
         <v>9700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>141700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>10800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>10200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>10200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>5800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>30800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>3000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1961,156 +2010,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E26" s="3">
         <v>8100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>110800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E27" s="3">
         <v>8100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>110800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2183,8 +2241,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2221,8 +2282,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2239,11 +2300,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>13000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2257,8 +2318,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2331,8 +2395,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2405,23 +2472,26 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-132600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2429,11 +2499,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2450,111 +2520,117 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
       <c r="Y32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E33" s="3">
         <v>8100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>110800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>9500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2627,161 +2703,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E35" s="3">
         <v>8100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>110800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>9500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
         <v>44653</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2808,8 +2893,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2836,82 +2922,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E41" s="3">
         <v>19300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>76300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>56500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>74600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>70800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>65600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>39600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>7400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2984,304 +3074,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>266900</v>
+      </c>
+      <c r="E43" s="3">
         <v>270000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>248700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>252600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>239700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>235000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>212100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>203500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>190400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>198800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>173800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>179500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>169900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>156400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>154500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>152500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>146100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>143100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>74100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>78500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>82000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>71600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>76200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>73800</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>164200</v>
+      </c>
+      <c r="E44" s="3">
         <v>159800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>150900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>144200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>144600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>138300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>129200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>127000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>128600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>119800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>112500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>109800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>109300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>104000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>101100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>101800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>95200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>85900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>122200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>137200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>129400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>127200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>119900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16600</v>
+        <v>16300</v>
       </c>
       <c r="E45" s="3">
         <v>16600</v>
       </c>
       <c r="F45" s="3">
+        <v>16600</v>
+      </c>
+      <c r="G45" s="3">
         <v>15200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>20000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>17000</v>
-      </c>
-      <c r="O45" s="3">
-        <v>18000</v>
       </c>
       <c r="P45" s="3">
         <v>18000</v>
       </c>
       <c r="Q45" s="3">
+        <v>18000</v>
+      </c>
+      <c r="R45" s="3">
         <v>18200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>24100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>23400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>23700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>22600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>22500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>23100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>21600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>22400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>484800</v>
+      </c>
+      <c r="E46" s="3">
         <v>465700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>492600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>420900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>410600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>403200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>410300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>425100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>401700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>396800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>340800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>312700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>282200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>284100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>282000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>268200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>254500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>221000</v>
-      </c>
-      <c r="V46" s="3">
-        <v>241800</v>
       </c>
       <c r="W46" s="3">
         <v>241800</v>
       </c>
       <c r="X46" s="3">
+        <v>241800</v>
+      </c>
+      <c r="Y46" s="3">
         <v>227600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>225900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>232800</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3354,156 +3459,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>143500</v>
+      </c>
+      <c r="E48" s="3">
         <v>142800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>135700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>126000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>124000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>124900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>126300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>124100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>131600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>133300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>134300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>131200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>130500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>127200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>107000</v>
-      </c>
-      <c r="R48" s="3">
-        <v>106600</v>
       </c>
       <c r="S48" s="3">
         <v>106600</v>
       </c>
       <c r="T48" s="3">
+        <v>106600</v>
+      </c>
+      <c r="U48" s="3">
         <v>110000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>110300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>114000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>110800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>104900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>101600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>337900</v>
+      </c>
+      <c r="E49" s="3">
         <v>341800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>345500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>285800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>289100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>292300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>295600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>298800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>302100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>305400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>309300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>240000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>242800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>245400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>248100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>250500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>253500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>229600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>232100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>234700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>179700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>181900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>201900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>186400</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3576,8 +3690,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3650,55 +3767,58 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E52" s="3">
         <v>9100</v>
-      </c>
-      <c r="E52" s="3">
-        <v>5000</v>
       </c>
       <c r="F52" s="3">
         <v>5000</v>
       </c>
       <c r="G52" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="H52" s="3">
         <v>5400</v>
       </c>
       <c r="I52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J52" s="3">
         <v>5200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5500</v>
-      </c>
-      <c r="R52" s="3">
-        <v>3500</v>
       </c>
       <c r="S52" s="3">
         <v>3500</v>
@@ -3707,25 +3827,28 @@
         <v>3500</v>
       </c>
       <c r="U52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="V52" s="3">
         <v>3400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3600</v>
       </c>
-      <c r="Y52" s="3" t="s">
+      <c r="Z52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3798,82 +3921,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>979000</v>
+      </c>
+      <c r="E54" s="3">
         <v>959300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>978700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>837800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>829100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>825900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>837300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>853400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>841600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>841800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>790400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>689600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>679600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>660700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>644700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>642600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>631900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>597600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>566800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>593800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>535800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>518000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>515400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>521000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3900,8 +4029,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3928,82 +4058,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>83200</v>
+      </c>
+      <c r="E57" s="3">
         <v>74800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>66100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>65300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>66500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>70200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>64000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>65700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>69100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>77000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>82600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>78300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>79300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>68800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>69300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>73500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>71700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>65000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>51900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>68500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>71700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>63300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>57000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4038,7 +4172,7 @@
         <v>7000</v>
       </c>
       <c r="N58" s="3">
-        <v>2300</v>
+        <v>7000</v>
       </c>
       <c r="O58" s="3">
         <v>2300</v>
@@ -4049,8 +4183,8 @@
       <c r="Q58" s="3">
         <v>2300</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
+      <c r="R58" s="3">
+        <v>2300</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
@@ -4058,8 +4192,8 @@
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4076,304 +4210,319 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E59" s="3">
         <v>76800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>89500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>61900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>60100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>55800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>71900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>65200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>59300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>59000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>55100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>52500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>49400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>46600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>54900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>47000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>41000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>38200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>28300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>29800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>25800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>28100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>29300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>173700</v>
+      </c>
+      <c r="E60" s="3">
         <v>158600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>162600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>134200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>133600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>133000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>142900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>137900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>135400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>142900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>144700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>133100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>131000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>117700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>126500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>120600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>112600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>103200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>80200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>98300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>97500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>91400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>86300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>246100</v>
+      </c>
+      <c r="E61" s="3">
         <v>247700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>279400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>291000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>297700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>304300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>311900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>340300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>342000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>343600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>300900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>222600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>225600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>229100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>228900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>229400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>231200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>209700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>216100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>222400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>169600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>162200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>166900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>176600</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>62700</v>
+      </c>
+      <c r="E62" s="3">
         <v>65300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>62200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>53600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>52300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>52900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>53200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>55700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>54700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>52800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>52100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>50100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>50800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>50100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>32500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>37000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>38100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>37300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>34900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>48500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>49700</v>
-      </c>
-      <c r="X62" s="3">
-        <v>50100</v>
       </c>
       <c r="Y62" s="3">
         <v>50100</v>
       </c>
       <c r="Z62" s="3">
+        <v>50100</v>
+      </c>
+      <c r="AA62" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4446,8 +4595,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4520,8 +4672,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4594,82 +4749,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>482500</v>
+      </c>
+      <c r="E66" s="3">
         <v>471600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>504100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>478800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>483600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>490300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>508000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>533900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>532000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>539400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>497600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>405800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>407400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>396900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>387900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>387000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>381900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>350300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>331200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>369200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>316800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>303700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>303300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>309900</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4696,8 +4857,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4770,8 +4932,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4844,8 +5009,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4918,8 +5086,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4992,82 +5163,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>389500</v>
+      </c>
+      <c r="E72" s="3">
         <v>385400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>377300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>266400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>256800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>248400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>241700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>232100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>225600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>220500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>212600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>203700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>195400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>187600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>180400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>179400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>175200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>173700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>161400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>151900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>147200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>143400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>141300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>140000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5140,8 +5317,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5214,8 +5394,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5288,82 +5471,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>496500</v>
+      </c>
+      <c r="E76" s="3">
         <v>487700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>474600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>358900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>345500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>335600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>329300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>319400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>309600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>302400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>292800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>283800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>272200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>263800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>256800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>255600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>250000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>247300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>235600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>224600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>218900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>214300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>212100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5436,161 +5625,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
         <v>44653</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E81" s="3">
         <v>8100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>110800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>9500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5617,82 +5815,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E83" s="3">
         <v>7800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6900</v>
-      </c>
-      <c r="I83" s="3">
-        <v>7100</v>
       </c>
       <c r="J83" s="3">
         <v>7100</v>
       </c>
       <c r="K83" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="L83" s="3">
         <v>7300</v>
       </c>
       <c r="M83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="N83" s="3">
         <v>7600</v>
-      </c>
-      <c r="N83" s="3">
-        <v>7000</v>
       </c>
       <c r="O83" s="3">
         <v>7000</v>
       </c>
       <c r="P83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>6800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6700</v>
-      </c>
-      <c r="R83" s="3">
-        <v>6300</v>
       </c>
       <c r="S83" s="3">
         <v>6300</v>
       </c>
       <c r="T83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="U83" s="3">
         <v>6000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>5700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>5800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>5400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5765,8 +5967,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5839,8 +6044,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5913,8 +6121,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5987,8 +6198,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6061,82 +6275,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-18900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>11700</v>
-      </c>
-      <c r="F89" s="3">
-        <v>5500</v>
       </c>
       <c r="G89" s="3">
         <v>5500</v>
       </c>
       <c r="H89" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I89" s="3">
         <v>-23400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>11100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-12000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>31000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>12000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>12800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>15900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>10300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>8100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>11100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>13200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>15800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6163,82 +6383,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-8400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-9400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-6800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6311,8 +6535,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6385,82 +6612,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>67600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-80200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-35100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-67200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-9400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-6800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-7700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6487,8 +6720,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6561,8 +6795,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6635,8 +6872,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6709,8 +6949,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6783,82 +7026,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-33400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-11600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-29000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>41700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>82100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5100</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-1600</v>
       </c>
       <c r="Q100" s="3">
         <v>-1600</v>
       </c>
       <c r="R100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="S100" s="3">
         <v>-2200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>21000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-7400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-6900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>52500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>6700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-6800</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>-10100</v>
       </c>
       <c r="Z100" s="3">
         <v>-10100</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>-10100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6931,78 +7180,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-57100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>67300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-39500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-18100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>26000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>32800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6700</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>1700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>DCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,348 +665,361 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>186600</v>
+      </c>
+      <c r="E8" s="3">
         <v>174200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>163500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>164800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>163200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>160200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>157200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>157800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>150400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>147300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>173500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>186900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>181100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>180500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>172600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>164200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>159800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>154800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>150500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>142300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>138700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>140900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>136300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>142500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E9" s="3">
         <v>139000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>131000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>127600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>127900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>123400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>124100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>123000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>116900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>114600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>136700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>146800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>142800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>142400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>136900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>131500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>128700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>122800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>123700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>116500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>112600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>114700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>111300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>114700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>107300</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E10" s="3">
         <v>35200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>32500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>37200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>35300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>36800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>33100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>34800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>33500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>32700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>36800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>40100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>38300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>38100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>35700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>32700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>31100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>32000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>26800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>25800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>26100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>26200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>25000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>27800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1034,8 +1047,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1111,8 +1125,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1188,47 +1205,50 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>900</v>
+      </c>
+      <c r="E14" s="3">
         <v>3200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>900</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1236,37 +1256,40 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>4800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>5200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>8300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>100</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>1200</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1342,8 +1365,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1368,162 +1394,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>173700</v>
+      </c>
+      <c r="E17" s="3">
         <v>166400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>151400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>153000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>149900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>147100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>146500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>146200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>140100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>137300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>159800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>171900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>166500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>166900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>159700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>158800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>153100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>149200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>145200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>144800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>131300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>134300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>132000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>134700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>124500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E18" s="3">
         <v>7800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>12100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>11800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>13300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>13100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>11600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>15000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>14600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>12900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>7400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>6600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>4300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>7800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1551,8 +1584,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1563,14 +1597,14 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>132600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1578,11 +1612,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1599,152 +1633,158 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>500</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
       <c r="Z20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E21" s="3">
         <v>15700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>19900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>151700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>20800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>20100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>17500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>18700</v>
-      </c>
-      <c r="K21" s="3">
-        <v>17400</v>
       </c>
       <c r="L21" s="3">
         <v>17400</v>
       </c>
       <c r="M21" s="3">
+        <v>17400</v>
+      </c>
+      <c r="N21" s="3">
         <v>21000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>22600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>21600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>20600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>19600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>12300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>13100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>11900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>11200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>13500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>12400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>10000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>13300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E22" s="3">
         <v>2700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2800</v>
       </c>
       <c r="G22" s="3">
         <v>2800</v>
       </c>
       <c r="H22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I22" s="3">
         <v>2900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>4400</v>
       </c>
       <c r="P22" s="3">
         <v>4400</v>
@@ -1753,191 +1793,200 @@
         <v>4400</v>
       </c>
       <c r="R22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="S22" s="3">
         <v>3800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>2000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E23" s="3">
         <v>5100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>9700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>141700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>10800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>10200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>10200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>5800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>30800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-1500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>3000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2013,162 +2062,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E26" s="3">
         <v>4100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>110800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>9700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E27" s="3">
         <v>4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>110800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>9700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>8300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2244,8 +2302,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2285,8 +2346,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2303,11 +2364,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>13000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2321,8 +2382,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2398,8 +2462,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2475,8 +2542,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2487,14 +2557,14 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-132600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2502,11 +2572,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2523,114 +2593,120 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-500</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
       <c r="Z32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E33" s="3">
         <v>4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>110800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>9500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2706,167 +2782,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E35" s="3">
         <v>4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>110800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>9500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>4700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2894,8 +2979,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2923,85 +3009,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E41" s="3">
         <v>37500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>76300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>56500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>74600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>70800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>65600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>39600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>7100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>7400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3077,316 +3167,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>288800</v>
+      </c>
+      <c r="E43" s="3">
         <v>266900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>270000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>248700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>252600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>239700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>235000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>212100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>203500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>190400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>198800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>173800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>179500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>169900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>156400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>154500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>152500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>146100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>143100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>74100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>78500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>82000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>71600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>76200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>73800</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>172100</v>
+      </c>
+      <c r="E44" s="3">
         <v>164200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>159800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>150900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>144200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>144600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>138300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>129200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>127000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>128600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>119800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>112500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>109800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>109300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>104000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>101100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>101800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>95200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>85900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>122200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>137200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>129400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>127200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>119900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E45" s="3">
         <v>16300</v>
-      </c>
-      <c r="E45" s="3">
-        <v>16600</v>
       </c>
       <c r="F45" s="3">
         <v>16600</v>
       </c>
       <c r="G45" s="3">
+        <v>16600</v>
+      </c>
+      <c r="H45" s="3">
         <v>15200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>20000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>17000</v>
-      </c>
-      <c r="P45" s="3">
-        <v>18000</v>
       </c>
       <c r="Q45" s="3">
         <v>18000</v>
       </c>
       <c r="R45" s="3">
+        <v>18000</v>
+      </c>
+      <c r="S45" s="3">
         <v>18200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>24100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>23400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>23700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>22600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>22500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>23100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>21600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>22400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>499100</v>
+      </c>
+      <c r="E46" s="3">
         <v>484800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>465700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>492600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>420900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>410600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>403200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>410300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>425100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>401700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>396800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>340800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>312700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>282200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>284100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>282000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>268200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>254500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>221000</v>
-      </c>
-      <c r="W46" s="3">
-        <v>241800</v>
       </c>
       <c r="X46" s="3">
         <v>241800</v>
       </c>
       <c r="Y46" s="3">
+        <v>241800</v>
+      </c>
+      <c r="Z46" s="3">
         <v>227600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>225900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>232800</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3462,162 +3567,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>142500</v>
+      </c>
+      <c r="E48" s="3">
         <v>143500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>142800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>135700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>126000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>124000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>124900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>126300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>124100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>131600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>133300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>134300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>131200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>130500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>127200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>107000</v>
-      </c>
-      <c r="S48" s="3">
-        <v>106600</v>
       </c>
       <c r="T48" s="3">
         <v>106600</v>
       </c>
       <c r="U48" s="3">
+        <v>106600</v>
+      </c>
+      <c r="V48" s="3">
         <v>110000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>110300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>114000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>110800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>104900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>101600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>334200</v>
+      </c>
+      <c r="E49" s="3">
         <v>337900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>341800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>345500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>285800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>289100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>292300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>295600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>298800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>302100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>305400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>309300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>240000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>242800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>245400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>248100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>250500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>253500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>229600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>232100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>234700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>179700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>181900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>201900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>186400</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3693,8 +3807,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3770,58 +3887,61 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E52" s="3">
         <v>12800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9100</v>
-      </c>
-      <c r="F52" s="3">
-        <v>5000</v>
       </c>
       <c r="G52" s="3">
         <v>5000</v>
       </c>
       <c r="H52" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="I52" s="3">
         <v>5400</v>
       </c>
       <c r="J52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K52" s="3">
         <v>5200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5500</v>
-      </c>
-      <c r="S52" s="3">
-        <v>3500</v>
       </c>
       <c r="T52" s="3">
         <v>3500</v>
@@ -3830,25 +3950,28 @@
         <v>3500</v>
       </c>
       <c r="V52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="W52" s="3">
         <v>3400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3600</v>
       </c>
-      <c r="Z52" s="3" t="s">
+      <c r="AA52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3924,85 +4047,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>989500</v>
+      </c>
+      <c r="E54" s="3">
         <v>979000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>959300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>978700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>837800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>829100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>825900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>837300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>853400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>841600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>841800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>790400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>689600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>679600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>660700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>644700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>642600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>631900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>597600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>566800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>593800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>535800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>518000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>515400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>521000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4030,8 +4159,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4059,90 +4189,94 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>89700</v>
+      </c>
+      <c r="E57" s="3">
         <v>83200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>74800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>66100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>65300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>66500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>70200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>64000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>65700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>69100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>77000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>82600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>78300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>79300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>68800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>69300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>73500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>71700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>65000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>51900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>68500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>71700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>63300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>57000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7000</v>
+        <v>6300</v>
       </c>
       <c r="E58" s="3">
         <v>7000</v>
@@ -4175,7 +4309,7 @@
         <v>7000</v>
       </c>
       <c r="O58" s="3">
-        <v>2300</v>
+        <v>7000</v>
       </c>
       <c r="P58" s="3">
         <v>2300</v>
@@ -4186,8 +4320,8 @@
       <c r="R58" s="3">
         <v>2300</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
+      <c r="S58" s="3">
+        <v>2300</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
@@ -4195,8 +4329,8 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4213,316 +4347,331 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>85500</v>
+      </c>
+      <c r="E59" s="3">
         <v>83500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>76800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>89500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>61900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>60100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>55800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>71900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>65200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>59300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>59000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>55100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>52500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>49400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>46600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>54900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>47000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>41000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>38200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>28300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>29800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>25800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>28100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>29300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>181400</v>
+      </c>
+      <c r="E60" s="3">
         <v>173700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>158600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>162600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>134200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>133600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>133000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>142900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>137900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>135400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>142900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>144700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>133100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>131000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>117700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>126500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>120600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>112600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>103200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>80200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>98300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>97500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>91400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>86300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>242100</v>
+      </c>
+      <c r="E61" s="3">
         <v>246100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>247700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>279400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>291000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>297700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>304300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>311900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>340300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>342000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>343600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>300900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>222600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>225600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>229100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>228900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>229400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>231200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>209700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>216100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>222400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>169600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>162200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>166900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>176600</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>57200</v>
+      </c>
+      <c r="E62" s="3">
         <v>62700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>65300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>62200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>53600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>52300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>52900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>53200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>55700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>54700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>52800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>52100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>50100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>50800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>50100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>32500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>37000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>38100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>37300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>34900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>48500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>49700</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>50100</v>
       </c>
       <c r="Z62" s="3">
         <v>50100</v>
       </c>
       <c r="AA62" s="3">
+        <v>50100</v>
+      </c>
+      <c r="AB62" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4598,8 +4747,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4675,8 +4827,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4752,85 +4907,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>480700</v>
+      </c>
+      <c r="E66" s="3">
         <v>482500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>471600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>504100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>478800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>483600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>490300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>508000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>533900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>532000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>539400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>497600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>405800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>407400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>396900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>387900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>387000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>381900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>350300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>331200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>369200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>316800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>303700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>303300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>309900</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4858,8 +5019,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4935,8 +5097,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5012,8 +5177,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5089,8 +5257,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5166,85 +5337,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>398000</v>
+      </c>
+      <c r="E72" s="3">
         <v>389500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>385400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>377300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>266400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>256800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>248400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>241700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>232100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>225600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>220500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>212600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>203700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>195400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>187600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>180400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>179400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>175200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>173700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>161400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>151900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>147200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>143400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>141300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>140000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5320,8 +5497,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5397,8 +5577,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5474,85 +5657,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>508800</v>
+      </c>
+      <c r="E76" s="3">
         <v>496500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>487700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>474600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>358900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>345500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>335600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>329300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>319400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>309600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>302400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>292800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>283800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>272200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>263800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>256800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>255600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>250000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>247300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>235600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>224600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>218900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>214300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>212100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5628,167 +5817,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E81" s="3">
         <v>4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>110800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>9500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>4700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5816,85 +6014,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E83" s="3">
         <v>7900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>7100</v>
       </c>
       <c r="K83" s="3">
         <v>7100</v>
       </c>
       <c r="L83" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="M83" s="3">
         <v>7300</v>
       </c>
       <c r="N83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="O83" s="3">
         <v>7600</v>
-      </c>
-      <c r="O83" s="3">
-        <v>7000</v>
       </c>
       <c r="P83" s="3">
         <v>7000</v>
       </c>
       <c r="Q83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="R83" s="3">
         <v>6800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>6700</v>
-      </c>
-      <c r="S83" s="3">
-        <v>6300</v>
       </c>
       <c r="T83" s="3">
         <v>6300</v>
       </c>
       <c r="U83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="V83" s="3">
         <v>6000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>5600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>5700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>5800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>5400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5970,8 +6172,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6047,8 +6252,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6124,8 +6332,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6201,8 +6412,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6278,85 +6492,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E89" s="3">
         <v>25000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-18900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>11700</v>
-      </c>
-      <c r="G89" s="3">
-        <v>5500</v>
       </c>
       <c r="H89" s="3">
         <v>5500</v>
       </c>
       <c r="I89" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J89" s="3">
         <v>-23400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>11100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-12000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>31000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>12000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>9700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>12800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>15900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>10300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>8100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>11100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>13200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>15800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6384,85 +6604,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-8400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-9400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-6800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6538,8 +6762,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6615,85 +6842,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>67600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-80200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-35100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-67200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-9400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-6800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-7700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6721,8 +6954,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6798,8 +7032,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6875,8 +7112,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6952,8 +7192,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7029,85 +7272,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-33400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-11600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-29000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>41700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>82100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5100</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-1600</v>
       </c>
       <c r="R100" s="3">
         <v>-1600</v>
       </c>
       <c r="S100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="T100" s="3">
         <v>-2200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>21000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-7400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-6900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>52500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>6700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-6800</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>-10100</v>
       </c>
       <c r="AA100" s="3">
         <v>-10100</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>-10100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7183,81 +7432,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E102" s="3">
         <v>18300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-57100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>67300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-39500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-18100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>26000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>32800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6700</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>1700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>DCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,291 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44289</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>188300</v>
+      </c>
+      <c r="E8" s="3">
         <v>186600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>174200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>163500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>164800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>163200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>160200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>157200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>157800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>150400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>147300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>173500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>186900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>181100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>180500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>172600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>164200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>159800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>154800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>150500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>142300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>138700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>140900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>136300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>142500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>149700</v>
+      </c>
+      <c r="E9" s="3">
         <v>148000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>139000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>131000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>127600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>127900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>123400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>124100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>123000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>116900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>114600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>136700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>146800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>142800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>142400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>136900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>131500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>128700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>122800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>123700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>116500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>112600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>114700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>111300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>114700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>107300</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -947,79 +957,82 @@
         <v>38600</v>
       </c>
       <c r="E10" s="3">
+        <v>38600</v>
+      </c>
+      <c r="F10" s="3">
         <v>35200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>32500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>37200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>35300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>36800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>33100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>34800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>33500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>32700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>36800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>40100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>38300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>38100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>35700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>32700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>31100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>32000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>26800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>25800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>26100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>26200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>25000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>27800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1048,8 +1061,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1128,8 +1142,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1208,50 +1225,53 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-3000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>900</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1259,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>4800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>5200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>8300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>100</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>1200</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1368,8 +1391,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1395,168 +1421,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>178600</v>
+      </c>
+      <c r="E17" s="3">
         <v>173700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>166400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>151400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>153000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>149900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>147100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>146500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>146200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>140100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>137300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>159800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>171900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>166500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>166900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>159700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>158800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>153100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>149200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>145200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>144800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>131300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>134300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>132000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>134700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>124500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E18" s="3">
         <v>12900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>12100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>11800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>13300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>13100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>15000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>14600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>12900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>5300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>7400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>6600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>4300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>7800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1585,13 +1618,14 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1600,14 +1634,14 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>132600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1615,11 +1649,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1636,158 +1670,164 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>500</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
       <c r="AA20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E21" s="3">
         <v>20600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>15700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>19900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>151700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>20800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>20100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>17500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>18700</v>
-      </c>
-      <c r="L21" s="3">
-        <v>17400</v>
       </c>
       <c r="M21" s="3">
         <v>17400</v>
       </c>
       <c r="N21" s="3">
+        <v>17400</v>
+      </c>
+      <c r="O21" s="3">
         <v>21000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>22600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>21600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>20600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>19600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>12300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>13100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>11900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>11200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>13500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>12400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>10000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>13300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E22" s="3">
         <v>3000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>2800</v>
       </c>
       <c r="H22" s="3">
         <v>2800</v>
       </c>
       <c r="I22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J22" s="3">
         <v>2900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>4400</v>
       </c>
       <c r="Q22" s="3">
         <v>4400</v>
@@ -1796,197 +1836,206 @@
         <v>4400</v>
       </c>
       <c r="S22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="T22" s="3">
         <v>3800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>2100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>2000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E23" s="3">
         <v>9900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>9700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>141700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>10800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>10200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>10200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-5100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>5600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>4600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>5800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>30800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-1500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>3000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2065,168 +2114,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E26" s="3">
         <v>8500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>110800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>9700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>8300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E27" s="3">
         <v>8500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>110800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>9700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>8900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>8300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>4700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2305,8 +2363,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2349,8 +2410,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2367,11 +2428,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>13000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2385,8 +2446,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2465,8 +2529,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2545,13 +2612,16 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-2400</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2560,14 +2630,14 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-132600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2575,11 +2645,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2596,117 +2666,123 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-500</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
       <c r="AA32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E33" s="3">
         <v>8500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>110800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>8300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>9500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>4700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2785,173 +2861,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E35" s="3">
         <v>8500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>110800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>8300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>9500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>4700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44289</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2980,8 +3065,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3010,88 +3096,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E41" s="3">
         <v>21200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>37500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>19300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>76300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>56500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>74600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>70800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>65600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>39600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>7400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>7100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>7400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3170,328 +3260,343 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>295200</v>
+      </c>
+      <c r="E43" s="3">
         <v>288800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>266900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>270000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>248700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>252600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>239700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>235000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>212100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>203500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>190400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>198800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>173800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>179500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>169900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>156400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>154500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>152500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>146100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>143100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>74100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>78500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>82000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>71600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>76200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>73800</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>171200</v>
+      </c>
+      <c r="E44" s="3">
         <v>172100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>164200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>159800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>150900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>144200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>144600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>138300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>129200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>127000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>128600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>119800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>112500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>109800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>109300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>104000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>101100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>101800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>95200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>85900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>122200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>137200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>129400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>127200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>119900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E45" s="3">
         <v>16900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>16600</v>
       </c>
       <c r="G45" s="3">
         <v>16600</v>
       </c>
       <c r="H45" s="3">
+        <v>16600</v>
+      </c>
+      <c r="I45" s="3">
         <v>15200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>20000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>17000</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>18000</v>
       </c>
       <c r="R45" s="3">
         <v>18000</v>
       </c>
       <c r="S45" s="3">
+        <v>18000</v>
+      </c>
+      <c r="T45" s="3">
         <v>18200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>24100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>23400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>23700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>22600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>22500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>23100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>21600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>22400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>527300</v>
+      </c>
+      <c r="E46" s="3">
         <v>499100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>484800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>465700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>492600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>420900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>410600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>403200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>410300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>425100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>401700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>396800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>340800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>312700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>300500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>282200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>284100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>282000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>268200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>254500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>221000</v>
-      </c>
-      <c r="X46" s="3">
-        <v>241800</v>
       </c>
       <c r="Y46" s="3">
         <v>241800</v>
       </c>
       <c r="Z46" s="3">
+        <v>241800</v>
+      </c>
+      <c r="AA46" s="3">
         <v>227600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>225900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>232800</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3570,168 +3675,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>140900</v>
+      </c>
+      <c r="E48" s="3">
         <v>142500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>143500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>142800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>135700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>126000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>124000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>124900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>126300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>124100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>131600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>133300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>134300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>131200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>130500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>127200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>107000</v>
-      </c>
-      <c r="T48" s="3">
-        <v>106600</v>
       </c>
       <c r="U48" s="3">
         <v>106600</v>
       </c>
       <c r="V48" s="3">
+        <v>106600</v>
+      </c>
+      <c r="W48" s="3">
         <v>110000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>110300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>114000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>110800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>104900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>101600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>330600</v>
+      </c>
+      <c r="E49" s="3">
         <v>334200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>337900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>341800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>345500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>285800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>289100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>292300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>295600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>298800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>302100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>305400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>309300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>240000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>242800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>245400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>248100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>250500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>253500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>229600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>232100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>234700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>179700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>181900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>201900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>186400</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3810,8 +3924,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3890,61 +4007,64 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E52" s="3">
         <v>13700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>5000</v>
       </c>
       <c r="H52" s="3">
         <v>5000</v>
       </c>
       <c r="I52" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="J52" s="3">
         <v>5400</v>
       </c>
       <c r="K52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="L52" s="3">
         <v>5200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5500</v>
-      </c>
-      <c r="T52" s="3">
-        <v>3500</v>
       </c>
       <c r="U52" s="3">
         <v>3500</v>
@@ -3953,25 +4073,28 @@
         <v>3500</v>
       </c>
       <c r="W52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="X52" s="3">
         <v>3400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3600</v>
       </c>
-      <c r="AA52" s="3" t="s">
+      <c r="AB52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4050,88 +4173,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1021500</v>
+      </c>
+      <c r="E54" s="3">
         <v>989500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>979000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>959300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>978700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>837800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>829100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>825900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>837300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>853400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>841600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>841800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>790400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>689600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>679600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>660700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>644700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>642600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>631900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>597600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>566800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>593800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>535800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>518000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>515400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>521000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4160,8 +4289,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4190,88 +4320,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>90100</v>
+      </c>
+      <c r="E57" s="3">
         <v>89700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>83200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>74800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>66100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>65300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>66500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>70200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>64000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>65700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>69100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>77000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>82600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>78300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>79300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>68800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>69300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>73500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>71700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>65000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>51900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>68500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>71700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>63300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>57000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4279,7 +4413,7 @@
         <v>6300</v>
       </c>
       <c r="E58" s="3">
-        <v>7000</v>
+        <v>6300</v>
       </c>
       <c r="F58" s="3">
         <v>7000</v>
@@ -4312,7 +4446,7 @@
         <v>7000</v>
       </c>
       <c r="P58" s="3">
-        <v>2300</v>
+        <v>7000</v>
       </c>
       <c r="Q58" s="3">
         <v>2300</v>
@@ -4323,8 +4457,8 @@
       <c r="S58" s="3">
         <v>2300</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
+      <c r="T58" s="3">
+        <v>2300</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>8</v>
@@ -4332,8 +4466,8 @@
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4350,328 +4484,343 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E59" s="3">
         <v>85500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>83500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>76800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>89500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>61900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>60100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>55800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>71900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>65200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>59300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>59000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>55100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>52500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>49400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>46600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>54900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>47000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>41000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>38200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>28300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>29800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>25800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>28100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>29300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>199400</v>
+      </c>
+      <c r="E60" s="3">
         <v>181400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>173700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>158600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>162600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>134200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>133600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>133000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>142900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>137900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>135400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>142900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>144700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>133100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>131000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>117700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>126500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>120600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>112600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>103200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>80200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>98300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>97500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>91400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>86300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>240600</v>
+      </c>
+      <c r="E61" s="3">
         <v>242100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>246100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>247700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>279400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>291000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>297700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>304300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>311900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>340300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>342000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>343600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>300900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>222600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>225600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>229100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>228900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>229400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>231200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>209700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>216100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>222400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>169600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>162200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>166900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>176600</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E62" s="3">
         <v>57200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>62700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>65300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>62200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>53600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>52300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>52900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>53200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>55700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>54700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>52800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>52100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>50100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>50800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>50100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>32500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>37000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>38100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>37300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>34900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>48500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>49700</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>50100</v>
       </c>
       <c r="AA62" s="3">
         <v>50100</v>
       </c>
       <c r="AB62" s="3">
+        <v>50100</v>
+      </c>
+      <c r="AC62" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4750,8 +4899,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4830,8 +4982,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4910,88 +5065,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>495500</v>
+      </c>
+      <c r="E66" s="3">
         <v>480700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>482500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>471600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>504100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>478800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>483600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>490300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>508000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>533900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>532000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>539400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>497600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>405800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>407400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>396900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>387900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>387000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>381900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>350300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>331200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>369200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>316800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>303700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>303300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>309900</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5020,8 +5181,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5100,8 +5262,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5180,8 +5345,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5260,8 +5428,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5340,88 +5511,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>406100</v>
+      </c>
+      <c r="E72" s="3">
         <v>398000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>389500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>385400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>377300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>266400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>256800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>248400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>241700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>232100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>225600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>220500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>212600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>203700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>195400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>187600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>180400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>179400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>175200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>173700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>161400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>151900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>147200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>143400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>141300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>140000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5500,8 +5677,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5580,8 +5760,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5660,88 +5843,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>526000</v>
+      </c>
+      <c r="E76" s="3">
         <v>508800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>496500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>487700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>474600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>358900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>345500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>335600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>329300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>319400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>309600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>302400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>292800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>283800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>272200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>263800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>256800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>255600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>250000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>247300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>235600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>224600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>218900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>214300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>212100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5820,173 +6009,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44289</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E81" s="3">
         <v>8500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>110800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>8300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>9500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>4700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6015,88 +6213,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E83" s="3">
         <v>7700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6900</v>
-      </c>
-      <c r="K83" s="3">
-        <v>7100</v>
       </c>
       <c r="L83" s="3">
         <v>7100</v>
       </c>
       <c r="M83" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="N83" s="3">
         <v>7300</v>
       </c>
       <c r="O83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="P83" s="3">
         <v>7600</v>
-      </c>
-      <c r="P83" s="3">
-        <v>7000</v>
       </c>
       <c r="Q83" s="3">
         <v>7000</v>
       </c>
       <c r="R83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="S83" s="3">
         <v>6800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>6700</v>
-      </c>
-      <c r="T83" s="3">
-        <v>6300</v>
       </c>
       <c r="U83" s="3">
         <v>6300</v>
       </c>
       <c r="V83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="W83" s="3">
         <v>6000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>5700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>5600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>5700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>5800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>5400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6175,8 +6377,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6255,8 +6460,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6335,8 +6543,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6415,8 +6626,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6495,88 +6709,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>25000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-18900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>11700</v>
-      </c>
-      <c r="H89" s="3">
-        <v>5500</v>
       </c>
       <c r="I89" s="3">
         <v>5500</v>
       </c>
       <c r="J89" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-23400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-12000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>31000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>12000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>9700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>12800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>7200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>15900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>10300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>8100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>11100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>13200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>15800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6605,8 +6825,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6614,79 +6835,82 @@
         <v>-5300</v>
       </c>
       <c r="E91" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-8400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-9400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-6800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-4300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6765,8 +6989,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6845,8 +7072,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6854,79 +7084,82 @@
         <v>-5300</v>
       </c>
       <c r="E94" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>67600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-80200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-35100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-67200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-9400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-6800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-7700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6955,8 +7188,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7035,8 +7269,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7115,8 +7352,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7195,8 +7435,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7275,88 +7518,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-33400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-11900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-11600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-29000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>41700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>82100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5100</v>
-      </c>
-      <c r="R100" s="3">
-        <v>-1600</v>
       </c>
       <c r="S100" s="3">
         <v>-1600</v>
       </c>
       <c r="T100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="U100" s="3">
         <v>-2200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>21000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-7400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-6900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>52500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>6700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-6800</v>
-      </c>
-      <c r="AA100" s="3">
-        <v>-10100</v>
       </c>
       <c r="AB100" s="3">
         <v>-10100</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>-10100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7435,84 +7684,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-16300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>18300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-57100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>67300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-39500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-18100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>26000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>32800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>6700</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>1700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>DCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,374 +665,387 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44289</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42826</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>181200</v>
+      </c>
+      <c r="E8" s="3">
         <v>188300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>186600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>174200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>163500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>164800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>163200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>160200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>157200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>157800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>150400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>147300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>173500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>186900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>181100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>180500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>172600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>164200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>159800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>154800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>150500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>142300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>138700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>140900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>136300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>142500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>144400</v>
+      </c>
+      <c r="E9" s="3">
         <v>149700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>148000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>139000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>131000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>127600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>127900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>123400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>124100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>123000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>116900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>114600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>136700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>146800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>142800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>142400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>136900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>131500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>128700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>122800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>123700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>116500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>112600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>114700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>111300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>114700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>107300</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>38600</v>
+        <v>36800</v>
       </c>
       <c r="E10" s="3">
         <v>38600</v>
       </c>
       <c r="F10" s="3">
+        <v>38600</v>
+      </c>
+      <c r="G10" s="3">
         <v>35200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>32500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>37200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>35300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>36800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>33100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>34800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>33500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>32700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>36800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>40100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>38300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>38100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>35700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>32700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>31100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>32000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>26800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>25800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>26100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>26200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>25000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>27800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1062,8 +1075,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1145,8 +1159,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1228,53 +1245,56 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E14" s="3">
         <v>2900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-3000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>900</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
@@ -1282,37 +1302,40 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>4800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>5200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>8300</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>100</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>1200</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1394,8 +1417,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1422,174 +1448,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>174800</v>
+      </c>
+      <c r="E17" s="3">
         <v>178600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>173700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>166400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>151400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>153000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>149900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>147100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>146500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>146200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>140100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>137300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>159800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>171900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>166500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>166900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>159700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>158800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>153100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>149200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>145200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>144800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>131300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>134300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>132000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>134700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>124500</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E18" s="3">
         <v>9700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>12900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>12100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>11800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>13300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>13100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>15000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>14600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>12900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>5600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>5300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>7400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>6600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>4300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>7800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1619,17 +1652,18 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E20" s="3">
         <v>2400</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1637,14 +1671,14 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>132600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1652,11 +1686,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1673,164 +1707,170 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>500</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
       <c r="AB20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E21" s="3">
         <v>20200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>20600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>15700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>19900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>151700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>20800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>20100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>17500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>18700</v>
-      </c>
-      <c r="M21" s="3">
-        <v>17400</v>
       </c>
       <c r="N21" s="3">
         <v>17400</v>
       </c>
       <c r="O21" s="3">
+        <v>17400</v>
+      </c>
+      <c r="P21" s="3">
         <v>21000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>22600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>21600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>20600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>19600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>12300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>13100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>11900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>11200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>13500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>12400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>10000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>13300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E22" s="3">
         <v>3500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2800</v>
       </c>
       <c r="I22" s="3">
         <v>2800</v>
       </c>
       <c r="J22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K22" s="3">
         <v>2900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5200</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>4400</v>
       </c>
       <c r="R22" s="3">
         <v>4400</v>
@@ -1839,203 +1879,212 @@
         <v>4400</v>
       </c>
       <c r="T22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="U22" s="3">
         <v>3800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>2200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>2100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>1700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>2000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E23" s="3">
         <v>8600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>9900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>9700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>141700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>10800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>10200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>10200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>9200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-5100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>5600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>4600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>5800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>800</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>30800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>3000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2117,174 +2166,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E26" s="3">
         <v>8100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>110800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>8900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>8300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>4700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E27" s="3">
         <v>8100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>110800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>8900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>8300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>4700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>2800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2366,8 +2424,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2413,8 +2474,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2431,11 +2492,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>13000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2449,8 +2510,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2532,8 +2596,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2615,17 +2682,20 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2400</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2633,14 +2703,14 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-132600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2648,11 +2718,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2669,120 +2739,126 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-500</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
       <c r="AB32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E33" s="3">
         <v>8100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>110800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>8900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>8300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>9500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>4700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>2800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2864,179 +2940,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E35" s="3">
         <v>8100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>110800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>8900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>8300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>9500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>4700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>2800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44289</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42826</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3066,8 +3151,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3097,91 +3183,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E41" s="3">
         <v>46200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>37500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>76300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>56500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>74600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>70800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>65600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>39600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>7400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>7100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>7400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3263,340 +3353,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>290100</v>
+      </c>
+      <c r="E43" s="3">
         <v>295200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>288800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>266900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>270000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>248700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>252600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>239700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>235000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>212100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>203500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>190400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>198800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>173800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>179500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>169900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>156400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>154500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>152500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>146100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>143100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>74100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>78500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>82000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>71600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>76200</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>73800</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>194000</v>
+      </c>
+      <c r="E44" s="3">
         <v>171200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>172100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>164200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>159800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>150900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>144200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>144600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>138300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>129200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>127000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>128600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>119800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>112500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>109800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>109300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>104000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>101100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>101800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>95200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>85900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>122200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>137200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>129400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>127200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>119900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E45" s="3">
         <v>14600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>16600</v>
       </c>
       <c r="H45" s="3">
         <v>16600</v>
       </c>
       <c r="I45" s="3">
+        <v>16600</v>
+      </c>
+      <c r="J45" s="3">
         <v>15200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>20000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>14900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>17000</v>
-      </c>
-      <c r="R45" s="3">
-        <v>18000</v>
       </c>
       <c r="S45" s="3">
         <v>18000</v>
       </c>
       <c r="T45" s="3">
+        <v>18000</v>
+      </c>
+      <c r="U45" s="3">
         <v>18200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>24100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>23400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>23700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>22600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>22500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>23100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>21600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>22400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>515400</v>
+      </c>
+      <c r="E46" s="3">
         <v>527300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>499100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>484800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>465700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>492600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>420900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>410600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>403200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>410300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>425100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>401700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>396800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>340800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>312700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>300500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>282200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>284100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>282000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>268200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>254500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>221000</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>241800</v>
       </c>
       <c r="Z46" s="3">
         <v>241800</v>
       </c>
       <c r="AA46" s="3">
+        <v>241800</v>
+      </c>
+      <c r="AB46" s="3">
         <v>227600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>225900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>232800</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3678,174 +3783,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>144200</v>
+      </c>
+      <c r="E48" s="3">
         <v>140900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>142500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>143500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>142800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>135700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>126000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>124000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>124900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>126300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>124100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>131600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>133300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>134300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>131200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>130500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>127200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>107000</v>
-      </c>
-      <c r="U48" s="3">
-        <v>106600</v>
       </c>
       <c r="V48" s="3">
         <v>106600</v>
       </c>
       <c r="W48" s="3">
+        <v>106600</v>
+      </c>
+      <c r="X48" s="3">
         <v>110000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>110300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>114000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>110800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>104900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>101600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>327000</v>
+      </c>
+      <c r="E49" s="3">
         <v>330600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>334200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>337900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>341800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>345500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>285800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>289100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>292300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>295600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>298800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>302100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>305400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>309300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>240000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>242800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>245400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>248100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>250500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>253500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>229600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>232100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>234700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>179700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>181900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>201900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>186400</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3927,8 +4041,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4010,64 +4127,67 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E52" s="3">
         <v>22700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>5000</v>
       </c>
       <c r="I52" s="3">
         <v>5000</v>
       </c>
       <c r="J52" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="K52" s="3">
         <v>5400</v>
       </c>
       <c r="L52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="M52" s="3">
         <v>5200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5500</v>
-      </c>
-      <c r="U52" s="3">
-        <v>3500</v>
       </c>
       <c r="V52" s="3">
         <v>3500</v>
@@ -4076,25 +4196,28 @@
         <v>3500</v>
       </c>
       <c r="X52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Y52" s="3">
         <v>3400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>3600</v>
       </c>
-      <c r="AB52" s="3" t="s">
+      <c r="AC52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4176,91 +4299,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1006100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1021500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>989500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>979000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>959300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>978700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>837800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>829100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>825900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>837300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>853400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>841600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>841800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>790400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>689600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>679600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>660700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>644700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>642600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>631900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>597600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>566800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>593800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>535800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>518000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>515400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>521000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4290,8 +4419,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4321,91 +4451,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>98900</v>
+      </c>
+      <c r="E57" s="3">
         <v>90100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>89700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>83200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>74800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>66100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>65300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>66500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>70200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>64000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>65700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>69100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>77000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>82600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>78300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>79300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>68800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>69300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>73500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>71700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>65000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>51900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>68500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>71700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>63300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>57000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4416,7 +4550,7 @@
         <v>6300</v>
       </c>
       <c r="F58" s="3">
-        <v>7000</v>
+        <v>6300</v>
       </c>
       <c r="G58" s="3">
         <v>7000</v>
@@ -4449,7 +4583,7 @@
         <v>7000</v>
       </c>
       <c r="Q58" s="3">
-        <v>2300</v>
+        <v>7000</v>
       </c>
       <c r="R58" s="3">
         <v>2300</v>
@@ -4460,8 +4594,8 @@
       <c r="T58" s="3">
         <v>2300</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
+      <c r="U58" s="3">
+        <v>2300</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>8</v>
@@ -4469,8 +4603,8 @@
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="X58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
@@ -4487,340 +4621,355 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>76200</v>
+      </c>
+      <c r="E59" s="3">
         <v>103000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>85500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>83500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>76800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>89500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>61900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>60100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>55800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>71900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>65200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>59300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>59000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>55100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>52500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>49400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>46600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>54900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>47000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>41000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>38200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>28300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>29800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>25800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>28100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>29300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>181400</v>
+      </c>
+      <c r="E60" s="3">
         <v>199400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>181400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>173700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>158600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>162600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>134200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>133600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>133000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>142900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>137900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>135400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>142900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>144700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>133100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>131000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>117700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>126500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>120600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>112600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>103200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>80200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>98300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>97500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>91400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>86300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>239100</v>
+      </c>
+      <c r="E61" s="3">
         <v>240600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>242100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>246100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>247700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>279400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>291000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>297700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>304300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>311900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>340300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>342000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>343600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>300900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>222600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>225600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>229100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>228900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>229400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>231200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>209700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>216100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>222400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>169600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>162200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>166900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>176600</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>57200</v>
+      </c>
+      <c r="E62" s="3">
         <v>55500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>57200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>62700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>65300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>62200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>53600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>52300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>52900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>53200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>55700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>54700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>52800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>52100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>50100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>50800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>50100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>32500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>37000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>38100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>37300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>34900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>48500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>49700</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>50100</v>
       </c>
       <c r="AB62" s="3">
         <v>50100</v>
       </c>
       <c r="AC62" s="3">
+        <v>50100</v>
+      </c>
+      <c r="AD62" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4902,8 +5051,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4985,8 +5137,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5068,91 +5223,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>477700</v>
+      </c>
+      <c r="E66" s="3">
         <v>495500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>480700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>482500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>471600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>504100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>478800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>483600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>490300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>508000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>533900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>532000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>539400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>497600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>405800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>407400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>396900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>387900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>387000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>381900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>350300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>331200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>369200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>316800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>303700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>303300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>309900</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5182,8 +5343,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5265,8 +5427,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5348,8 +5513,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5431,8 +5599,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5514,91 +5685,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>411300</v>
+      </c>
+      <c r="E72" s="3">
         <v>406100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>398000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>389500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>385400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>377300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>266400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>256800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>248400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>241700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>232100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>225600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>220500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>212600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>203700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>195400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>187600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>180400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>179400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>175200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>173700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>161400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>151900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>147200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>143400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>141300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>140000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5680,8 +5857,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5763,8 +5943,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5846,91 +6029,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>528400</v>
+      </c>
+      <c r="E76" s="3">
         <v>526000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>508800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>496500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>487700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>474600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>358900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>345500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>335600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>329300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>319400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>309600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>302400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>292800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>283800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>272200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>263800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>256800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>255600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>250000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>247300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>235600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>224600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>218900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>214300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>212100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6012,179 +6201,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44289</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42826</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E81" s="3">
         <v>8100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>110800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>8900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>8300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>9500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>4700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>2800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6214,91 +6412,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E83" s="3">
         <v>8100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6900</v>
-      </c>
-      <c r="L83" s="3">
-        <v>7100</v>
       </c>
       <c r="M83" s="3">
         <v>7100</v>
       </c>
       <c r="N83" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="O83" s="3">
         <v>7300</v>
       </c>
       <c r="P83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="Q83" s="3">
         <v>7600</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>7000</v>
       </c>
       <c r="R83" s="3">
         <v>7000</v>
       </c>
       <c r="S83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="T83" s="3">
         <v>6800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>6700</v>
-      </c>
-      <c r="U83" s="3">
-        <v>6300</v>
       </c>
       <c r="V83" s="3">
         <v>6300</v>
       </c>
       <c r="W83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="X83" s="3">
         <v>6000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>5700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>5600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>5700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>5800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>5400</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6380,8 +6582,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6463,8 +6668,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6546,8 +6754,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6629,8 +6840,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6712,91 +6926,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E89" s="3">
         <v>32100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>25000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-18900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>11700</v>
-      </c>
-      <c r="I89" s="3">
-        <v>5500</v>
       </c>
       <c r="J89" s="3">
         <v>5500</v>
       </c>
       <c r="K89" s="3">
+        <v>5500</v>
+      </c>
+      <c r="L89" s="3">
         <v>-23400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-12000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>31000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>12000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>9700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>12800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>7200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>15900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>10300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>8100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>11100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>13200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>15800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6826,91 +7046,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="E91" s="3">
         <v>-5300</v>
       </c>
       <c r="F91" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="G91" s="3">
         <v>-4200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4800</v>
       </c>
-      <c r="H91" s="3">
-        <v>-6100</v>
-      </c>
       <c r="I91" s="3">
+        <v>-75500</v>
+      </c>
+      <c r="J91" s="3">
         <v>-3400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-8400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-9400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-6800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-4300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6992,8 +7216,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7075,91 +7302,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="E94" s="3">
         <v>-5300</v>
       </c>
       <c r="F94" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="G94" s="3">
         <v>-3900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>67600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-80200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-35100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-67200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-9400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-6800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-7700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7189,8 +7422,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7272,8 +7506,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7355,8 +7592,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7438,8 +7678,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7521,91 +7764,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-33400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-11900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-29000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>41700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>82100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5100</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-1600</v>
       </c>
       <c r="T100" s="3">
         <v>-1600</v>
       </c>
       <c r="U100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="V100" s="3">
         <v>-2200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>21000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-7400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-6900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>52500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>6700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-6800</v>
-      </c>
-      <c r="AB100" s="3">
-        <v>-10100</v>
       </c>
       <c r="AC100" s="3">
         <v>-10100</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>-10100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7687,87 +7936,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="E102" s="3">
         <v>25000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-16300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>18300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-57100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>67300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-39500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-18100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>26000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>32800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>6700</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>1700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>DCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,387 +665,399 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>187300</v>
+      </c>
+      <c r="E8" s="3">
         <v>181200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>188300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>186600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>174200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>163500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>164800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>163200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>160200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>157200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>157800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>150400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>147300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>173500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>186900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>181100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>180500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>172600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>164200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>159800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>154800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>150500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>142300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>138700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>140900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>136300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>142500</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>147200</v>
+      </c>
+      <c r="E9" s="3">
         <v>144400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>149700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>148000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>139000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>131000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>127600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>127900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>123400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>124100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>123000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>116900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>114600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>136700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>146800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>142800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>142400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>136900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>131500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>128700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>122800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>123700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>116500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>112600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>114700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>111300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>114700</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>107300</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E10" s="3">
         <v>36800</v>
-      </c>
-      <c r="E10" s="3">
-        <v>38600</v>
       </c>
       <c r="F10" s="3">
         <v>38600</v>
       </c>
       <c r="G10" s="3">
+        <v>38600</v>
+      </c>
+      <c r="H10" s="3">
         <v>35200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>32500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>37200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>35300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>36800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>33100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>34800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>33500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>32700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>36800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>40100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>38300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>38100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>35700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>32700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>31100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>32000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>26800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>25800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>26100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>26200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>25000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>27800</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1076,8 +1088,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1162,8 +1175,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1248,56 +1264,59 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E14" s="3">
         <v>4200</v>
       </c>
-      <c r="E14" s="3">
-        <v>2900</v>
-      </c>
       <c r="F14" s="3">
+        <v>500</v>
+      </c>
+      <c r="G14" s="3">
         <v>900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-3000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>900</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1305,37 +1324,40 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>4800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>5200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>8300</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>100</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
         <v>0</v>
       </c>
       <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>1200</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1420,8 +1442,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1449,180 +1474,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>182300</v>
+      </c>
+      <c r="E17" s="3">
         <v>174800</v>
       </c>
-      <c r="E17" s="3">
-        <v>178600</v>
-      </c>
       <c r="F17" s="3">
+        <v>176200</v>
+      </c>
+      <c r="G17" s="3">
         <v>173700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>166400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>151400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>153000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>149900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>147100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>146500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>146200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>140100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>137300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>159800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>171900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>166500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>166900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>159700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>158800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>153100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>149200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>145200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>144800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>131300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>134300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>132000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>134700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>124500</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E18" s="3">
         <v>6400</v>
       </c>
-      <c r="E18" s="3">
-        <v>9700</v>
-      </c>
       <c r="F18" s="3">
+        <v>12100</v>
+      </c>
+      <c r="G18" s="3">
         <v>12900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>13300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>11600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>15000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>14600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>12900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>5600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>5300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>7400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>6600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>4300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>7800</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1653,17 +1685,18 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E20" s="3">
         <v>3900</v>
       </c>
-      <c r="E20" s="3">
-        <v>2400</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1674,14 +1707,14 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>132600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1689,11 +1722,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1710,170 +1743,176 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>500</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
       <c r="AC20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E21" s="3">
         <v>18200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>20200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>20600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>15700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>19900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>151700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>20800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>20100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>17500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>18700</v>
-      </c>
-      <c r="N21" s="3">
-        <v>17400</v>
       </c>
       <c r="O21" s="3">
         <v>17400</v>
       </c>
       <c r="P21" s="3">
+        <v>17400</v>
+      </c>
+      <c r="Q21" s="3">
         <v>21000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>22600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>21600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>20600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>19600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>12300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>13100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>11900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>11200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>13500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>12400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>10000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>13300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E22" s="3">
         <v>4200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>2800</v>
       </c>
       <c r="J22" s="3">
         <v>2800</v>
       </c>
       <c r="K22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L22" s="3">
         <v>2900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>4400</v>
       </c>
       <c r="S22" s="3">
         <v>4400</v>
@@ -1882,209 +1921,218 @@
         <v>4400</v>
       </c>
       <c r="U22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="V22" s="3">
         <v>3800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>3800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>2800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>2200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>2100</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>1700</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>2000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E23" s="3">
         <v>6000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>9900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>141700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>10800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>10200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>9200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>8500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-5100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>5600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>4600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>5800</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>30800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>3000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2169,180 +2217,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E26" s="3">
         <v>5200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>110800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>9600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>8900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>8300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>4700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>3800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2800</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E27" s="3">
         <v>5200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>110800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>9600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>8900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>8300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>4700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>3800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>2100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>2800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2427,8 +2484,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2477,8 +2537,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2495,11 +2555,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>13000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2513,8 +2573,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2599,8 +2662,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2685,17 +2751,20 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3900</v>
       </c>
-      <c r="E32" s="3">
-        <v>-2400</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2706,14 +2775,14 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-132600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2721,11 +2790,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2742,123 +2811,129 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-500</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
       <c r="AC32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E33" s="3">
         <v>5200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>110800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>8900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>9500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>4700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>3800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>2100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>2800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2943,185 +3018,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E35" s="3">
         <v>5200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>110800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>8900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>9500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>4700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>3800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>2100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>2800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3152,8 +3236,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3184,94 +3269,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E41" s="3">
         <v>17100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>46200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>37500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>76300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>56500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>74600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>70800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>65600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>39600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>7400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>7100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>7400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3356,352 +3445,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>285200</v>
+      </c>
+      <c r="E43" s="3">
         <v>290100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>295200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>288800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>266900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>270000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>248700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>252600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>239700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>235000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>212100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>203500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>190400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>198800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>173800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>179500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>169900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>156400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>154500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>152500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>146100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>143100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>74100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>78500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>82000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>71600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>76200</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>73800</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>204500</v>
+      </c>
+      <c r="E44" s="3">
         <v>194000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>171200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>172100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>164200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>159800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>150900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>144200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>144600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>138300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>129200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>127000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>128600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>119800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>112500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>109800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>109300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>104000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>101100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>101800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>95200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>85900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>122200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>137200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>129400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>127200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>119900</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E45" s="3">
         <v>14200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>16600</v>
       </c>
       <c r="I45" s="3">
         <v>16600</v>
       </c>
       <c r="J45" s="3">
+        <v>16600</v>
+      </c>
+      <c r="K45" s="3">
         <v>15200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>20000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>14900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>17000</v>
-      </c>
-      <c r="S45" s="3">
-        <v>18000</v>
       </c>
       <c r="T45" s="3">
         <v>18000</v>
       </c>
       <c r="U45" s="3">
+        <v>18000</v>
+      </c>
+      <c r="V45" s="3">
         <v>18200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>24100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>23400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>23700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>22600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>22500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>23100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>21600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>22400</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>529100</v>
+      </c>
+      <c r="E46" s="3">
         <v>515400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>527300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>499100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>484800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>465700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>492600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>420900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>410600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>403200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>410300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>425100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>401700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>396800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>340800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>312700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>300500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>282200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>284100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>282000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>268200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>254500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>221000</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>241800</v>
       </c>
       <c r="AA46" s="3">
         <v>241800</v>
       </c>
       <c r="AB46" s="3">
+        <v>241800</v>
+      </c>
+      <c r="AC46" s="3">
         <v>227600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>225900</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>232800</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3786,180 +3890,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>148100</v>
+      </c>
+      <c r="E48" s="3">
         <v>144200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>140900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>142500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>143500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>142800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>135700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>126000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>124000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>124900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>126300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>124100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>131600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>133300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>134300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>131200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>130500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>127200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>107000</v>
-      </c>
-      <c r="V48" s="3">
-        <v>106600</v>
       </c>
       <c r="W48" s="3">
         <v>106600</v>
       </c>
       <c r="X48" s="3">
+        <v>106600</v>
+      </c>
+      <c r="Y48" s="3">
         <v>110000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>110300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>114000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>110800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>104900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>101600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>419600</v>
+      </c>
+      <c r="E49" s="3">
         <v>327000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>330600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>334200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>337900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>341800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>345500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>285800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>289100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>292300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>295600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>298800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>302100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>305400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>309300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>240000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>242800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>245400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>248100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>250500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>253500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>229600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>232100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>234700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>179700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>181900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>201900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>186400</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4044,8 +4157,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4130,67 +4246,70 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E52" s="3">
         <v>19500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>22700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>5000</v>
       </c>
       <c r="J52" s="3">
         <v>5000</v>
       </c>
       <c r="K52" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="L52" s="3">
         <v>5400</v>
       </c>
       <c r="M52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="N52" s="3">
         <v>5200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5500</v>
-      </c>
-      <c r="V52" s="3">
-        <v>3500</v>
       </c>
       <c r="W52" s="3">
         <v>3500</v>
@@ -4199,25 +4318,28 @@
         <v>3500</v>
       </c>
       <c r="Y52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Z52" s="3">
         <v>3400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>3400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>3600</v>
       </c>
-      <c r="AC52" s="3" t="s">
+      <c r="AD52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4302,94 +4424,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1118800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1006100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1021500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>989500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>979000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>959300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>978700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>837800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>829100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>825900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>837300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>853400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>841600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>841800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>790400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>689600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>679600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>660700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>644700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>642600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>631900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>597600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>566800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>593800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>535800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>518000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>515400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>521000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4420,8 +4548,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4452,94 +4581,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E57" s="3">
         <v>98900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>90100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>89700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>83200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>74800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>66100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>65300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>66500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>70200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>64000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>65700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>69100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>77000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>82600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>78300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>79300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>68800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>69300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>73500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>71700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>65000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>51900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>68500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>71700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>63300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>57000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4553,7 +4686,7 @@
         <v>6300</v>
       </c>
       <c r="G58" s="3">
-        <v>7000</v>
+        <v>6300</v>
       </c>
       <c r="H58" s="3">
         <v>7000</v>
@@ -4586,7 +4719,7 @@
         <v>7000</v>
       </c>
       <c r="R58" s="3">
-        <v>2300</v>
+        <v>7000</v>
       </c>
       <c r="S58" s="3">
         <v>2300</v>
@@ -4597,8 +4730,8 @@
       <c r="U58" s="3">
         <v>2300</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
+      <c r="V58" s="3">
+        <v>2300</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>8</v>
@@ -4606,8 +4739,8 @@
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
@@ -4624,352 +4757,367 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E59" s="3">
         <v>76200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>103000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>85500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>83500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>76800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>89500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>61900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>60100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>55800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>71900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>65200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>59300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>59000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>55100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>52500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>49400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>46600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>54900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>47000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>41000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>38200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>28300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>29800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>25800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>28100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>29300</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>167200</v>
+      </c>
+      <c r="E60" s="3">
         <v>181400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>199400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>181400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>173700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>158600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>162600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>134200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>133600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>133000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>142900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>137900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>135400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>142900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>144700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>133100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>131000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>117700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>126500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>120600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>112600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>103200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>80200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>98300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>97500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>91400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>86300</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>271500</v>
+      </c>
+      <c r="E61" s="3">
         <v>239100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>240600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>242100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>246100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>247700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>279400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>291000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>297700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>304300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>311900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>340300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>342000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>343600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>300900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>222600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>225600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>229100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>228900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>229400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>231200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>209700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>216100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>222400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>169600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>162200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>166900</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>176600</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E62" s="3">
         <v>57200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>55500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>57200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>62700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>65300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>62200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>53600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>52300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>52900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>53200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>55700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>54700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>52800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>52100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>50100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>50800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>50100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>32500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>37000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>38100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>37300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>34900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>48500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>49700</v>
-      </c>
-      <c r="AB62" s="3">
-        <v>50100</v>
       </c>
       <c r="AC62" s="3">
         <v>50100</v>
       </c>
       <c r="AD62" s="3">
+        <v>50100</v>
+      </c>
+      <c r="AE62" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5054,8 +5202,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5140,8 +5291,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5226,94 +5380,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>496600</v>
+      </c>
+      <c r="E66" s="3">
         <v>477700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>495500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>480700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>482500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>471600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>504100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>478800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>483600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>490300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>508000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>533900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>532000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>539400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>497600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>405800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>407400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>396900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>387900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>387000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>381900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>350300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>331200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>369200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>316800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>303700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>303300</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>309900</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5344,8 +5504,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5430,8 +5591,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5516,8 +5680,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5602,8 +5769,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5688,94 +5858,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>413700</v>
+      </c>
+      <c r="E72" s="3">
         <v>411300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>406100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>398000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>389500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>385400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>377300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>266400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>256800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>248400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>241700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>232100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>225600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>220500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>212600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>203700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>195400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>187600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>180400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>179400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>175200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>173700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>161400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>151900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>147200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>143400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>141300</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>140000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5860,8 +6036,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5946,8 +6125,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6032,94 +6214,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>622100</v>
+      </c>
+      <c r="E76" s="3">
         <v>528400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>526000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>508800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>496500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>487700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>474600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>358900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>345500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>335600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>329300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>319400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>309600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>302400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>292800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>283800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>272200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>263800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>256800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>255600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>250000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>247300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>235600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>224600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>218900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>214300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>212100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6204,185 +6392,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E81" s="3">
         <v>5200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>110800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>8900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>9500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>4700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>3800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>2100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>2800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6413,8 +6610,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6422,85 +6620,88 @@
         <v>8000</v>
       </c>
       <c r="E83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F83" s="3">
         <v>8100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6900</v>
-      </c>
-      <c r="M83" s="3">
-        <v>7100</v>
       </c>
       <c r="N83" s="3">
         <v>7100</v>
       </c>
       <c r="O83" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="P83" s="3">
         <v>7300</v>
       </c>
       <c r="Q83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="R83" s="3">
         <v>7600</v>
-      </c>
-      <c r="R83" s="3">
-        <v>7000</v>
       </c>
       <c r="S83" s="3">
         <v>7000</v>
       </c>
       <c r="T83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="U83" s="3">
         <v>6800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>6700</v>
-      </c>
-      <c r="V83" s="3">
-        <v>6300</v>
       </c>
       <c r="W83" s="3">
         <v>6300</v>
       </c>
       <c r="X83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="Y83" s="3">
         <v>6000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>5700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>5600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>5700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>5800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>5400</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6585,8 +6786,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6671,8 +6875,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6757,8 +6964,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6843,8 +7053,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6929,94 +7142,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-18900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>32100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>25000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-18900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>11700</v>
-      </c>
-      <c r="J89" s="3">
-        <v>5500</v>
       </c>
       <c r="K89" s="3">
         <v>5500</v>
       </c>
       <c r="L89" s="3">
+        <v>5500</v>
+      </c>
+      <c r="M89" s="3">
         <v>-23400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>31000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>12000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>9700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>12800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>7200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>15900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>10300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>8100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>11100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>13200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>15800</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7047,94 +7266,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-119900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5400</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-5300</v>
       </c>
       <c r="F91" s="3">
         <v>-5300</v>
       </c>
       <c r="G91" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="H91" s="3">
         <v>-4200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-75500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-8400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-9400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-6800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-4300</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7219,8 +7442,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7305,94 +7531,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-119900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5400</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-5300</v>
       </c>
       <c r="F94" s="3">
         <v>-5300</v>
       </c>
       <c r="G94" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="H94" s="3">
         <v>-3900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>67600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-80200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-35100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-67200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-9400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-6800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-7700</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7423,8 +7655,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7509,8 +7742,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7595,8 +7831,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7681,8 +7920,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7767,94 +8009,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-33400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-11900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-11600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-29000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>41700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>82100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5100</v>
-      </c>
-      <c r="T100" s="3">
-        <v>-1600</v>
       </c>
       <c r="U100" s="3">
         <v>-1600</v>
       </c>
       <c r="V100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="W100" s="3">
         <v>-2200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>21000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-7400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-6900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>52500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>6700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-6800</v>
-      </c>
-      <c r="AC100" s="3">
-        <v>-10100</v>
       </c>
       <c r="AD100" s="3">
         <v>-10100</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>-10100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7939,90 +8187,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-29100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>25000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-16300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>18300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-57100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>67300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-39500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-18100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>26000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>32800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>6700</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>1700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-2000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>DCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,399 +665,412 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44289</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42917</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42826</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>196300</v>
+      </c>
+      <c r="E8" s="3">
         <v>187300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>181200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>188300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>186600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>174200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>163500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>164800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>163200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>160200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>157200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>157800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>150400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>147300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>173500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>186900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>181100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>180500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>172600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>164200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>159800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>154800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>150500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>142300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>138700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>140900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>136300</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>142500</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>151600</v>
+      </c>
+      <c r="E9" s="3">
         <v>147200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>144400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>149700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>148000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>139000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>131000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>127600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>127900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>123400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>124100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>123000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>116900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>114600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>136700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>146800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>142800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>142400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>136900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>131500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>128700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>122800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>123700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>116500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>112600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>114700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>111300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>114700</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>107300</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E10" s="3">
         <v>40100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>36800</v>
-      </c>
-      <c r="F10" s="3">
-        <v>38600</v>
       </c>
       <c r="G10" s="3">
         <v>38600</v>
       </c>
       <c r="H10" s="3">
+        <v>38600</v>
+      </c>
+      <c r="I10" s="3">
         <v>35200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>32500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>37200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>35300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>36800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>33100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>34800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>33500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>32700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>36800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>40100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>38300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>38100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>35700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>32700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>31100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>32000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>26800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>25800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>26100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>26200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>25000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>27800</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1089,8 +1102,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1178,8 +1192,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1267,59 +1284,62 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E14" s="3">
         <v>4800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-3000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>900</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
@@ -1327,37 +1347,40 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>4800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>5200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>8300</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>100</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
       <c r="AC14" s="3">
         <v>0</v>
       </c>
       <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
         <v>1200</v>
       </c>
-      <c r="AE14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1445,8 +1468,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1475,186 +1501,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>187600</v>
+      </c>
+      <c r="E17" s="3">
         <v>182300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>174800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>176200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>173700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>166400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>151400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>153000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>149900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>147100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>146500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>146200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>140100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>137300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>159800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>171900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>166500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>166900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>159700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>158800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>153100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>149200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>145200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>144800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>131300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>134300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>132000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>134700</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>124500</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E18" s="3">
         <v>5000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>12100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>12900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>11800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>11600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>15000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>14600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>13600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>12900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>5400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>6700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>5600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>5300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>7400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>6600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>4300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>7800</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1686,20 +1719,21 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>4100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3900</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1710,14 +1744,14 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>132600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1725,11 +1759,11 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1746,176 +1780,182 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>500</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
       <c r="AC20" s="3">
         <v>0</v>
       </c>
       <c r="AD20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E21" s="3">
         <v>17000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>18200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>20200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>20600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>15700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>19900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>151700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>20800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>20100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>17500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>18700</v>
-      </c>
-      <c r="O21" s="3">
-        <v>17400</v>
       </c>
       <c r="P21" s="3">
         <v>17400</v>
       </c>
       <c r="Q21" s="3">
+        <v>17400</v>
+      </c>
+      <c r="R21" s="3">
         <v>21000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>22600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>21600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>20600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>19600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>12300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>13100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>11900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>11200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>13500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>12400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>10000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>13300</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E22" s="3">
         <v>5700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2800</v>
       </c>
       <c r="K22" s="3">
         <v>2800</v>
       </c>
       <c r="L22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M22" s="3">
         <v>2900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5200</v>
-      </c>
-      <c r="S22" s="3">
-        <v>4400</v>
       </c>
       <c r="T22" s="3">
         <v>4400</v>
@@ -1924,215 +1964,224 @@
         <v>4400</v>
       </c>
       <c r="V22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="W22" s="3">
         <v>3800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>3800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>2900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>2800</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>2200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>2100</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>1700</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>2000</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E23" s="3">
         <v>3300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>9900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>141700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>9800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>10200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>9200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>8500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-5100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>5600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>4600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>2500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>5800</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>30800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>400</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>3000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2220,186 +2269,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E26" s="3">
         <v>2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>110800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>9600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>9700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>8900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>8300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>4700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>3800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>2800</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E27" s="3">
         <v>2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>110800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>9600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>8900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>8300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>4700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>3800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>2100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>2800</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2487,8 +2545,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2540,8 +2601,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2558,11 +2619,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
         <v>13000</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2576,8 +2637,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2665,8 +2729,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2754,20 +2821,23 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3900</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2778,14 +2848,14 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-132600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2793,11 +2863,11 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2814,126 +2884,132 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-500</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
       <c r="AC32" s="3">
         <v>0</v>
       </c>
       <c r="AD32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E33" s="3">
         <v>2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>110800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>8300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>7500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>9500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>4700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>3800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>2100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>2800</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3021,191 +3097,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E35" s="3">
         <v>2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>110800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>8300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>7500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>4200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>9500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>4700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>3800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>2100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>2800</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44289</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42917</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42826</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3237,8 +3322,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3270,97 +3356,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E41" s="3">
         <v>22800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>17100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>46200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>37500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>76300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>56500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>74600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>70800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>65600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>39600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>10300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>7400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>7100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>7400</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3448,364 +3538,379 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>295700</v>
+      </c>
+      <c r="E43" s="3">
         <v>285200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>290100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>295200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>288800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>266900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>270000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>248700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>252600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>239700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>235000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>212100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>203500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>190400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>198800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>173800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>179500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>169900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>156400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>154500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>152500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>146100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>143100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>74100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>78500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>82000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>71600</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>76200</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>73800</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>215200</v>
+      </c>
+      <c r="E44" s="3">
         <v>204500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>194000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>171200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>172100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>164200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>159800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>150900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>144200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>144600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>138300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>129200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>127000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>128600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>119800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>112500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>109800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>109300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>104000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>101100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>101800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>95200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>85900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>122200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>137200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>129400</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>127200</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>119900</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E45" s="3">
         <v>16600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>16600</v>
       </c>
       <c r="J45" s="3">
         <v>16600</v>
       </c>
       <c r="K45" s="3">
+        <v>16600</v>
+      </c>
+      <c r="L45" s="3">
         <v>15200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>20000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>11900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>14900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>17000</v>
-      </c>
-      <c r="T45" s="3">
-        <v>18000</v>
       </c>
       <c r="U45" s="3">
         <v>18000</v>
       </c>
       <c r="V45" s="3">
+        <v>18000</v>
+      </c>
+      <c r="W45" s="3">
         <v>18200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>24100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>23400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>23700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>22600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>22500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>23100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>21600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>22400</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>556700</v>
+      </c>
+      <c r="E46" s="3">
         <v>529100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>515400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>527300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>499100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>484800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>465700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>492600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>420900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>410600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>403200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>410300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>425100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>401700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>396800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>340800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>312700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>300500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>282200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>284100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>282000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>268200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>254500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>221000</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>241800</v>
       </c>
       <c r="AB46" s="3">
         <v>241800</v>
       </c>
       <c r="AC46" s="3">
+        <v>241800</v>
+      </c>
+      <c r="AD46" s="3">
         <v>227600</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>225900</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>232800</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3893,186 +3998,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>143700</v>
+      </c>
+      <c r="E48" s="3">
         <v>148100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>144200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>140900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>142500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>143500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>142800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>135700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>126000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>124000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>124900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>126300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>124100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>131600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>133300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>134300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>131200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>130500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>127200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>107000</v>
-      </c>
-      <c r="W48" s="3">
-        <v>106600</v>
       </c>
       <c r="X48" s="3">
         <v>106600</v>
       </c>
       <c r="Y48" s="3">
+        <v>106600</v>
+      </c>
+      <c r="Z48" s="3">
         <v>110000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>110300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>114000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>110800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>104900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>101600</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>415300</v>
+      </c>
+      <c r="E49" s="3">
         <v>419600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>327000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>330600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>334200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>337900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>341800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>345500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>285800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>289100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>292300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>295600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>298800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>302100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>305400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>309300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>240000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>242800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>245400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>248100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>250500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>253500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>229600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>232100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>234700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>179700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>181900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>201900</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>186400</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4160,8 +4274,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4249,70 +4366,73 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E52" s="3">
         <v>22000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>19500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>22700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>13700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>5000</v>
       </c>
       <c r="K52" s="3">
         <v>5000</v>
       </c>
       <c r="L52" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="M52" s="3">
         <v>5400</v>
       </c>
       <c r="N52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="O52" s="3">
         <v>5200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5500</v>
-      </c>
-      <c r="W52" s="3">
-        <v>3500</v>
       </c>
       <c r="X52" s="3">
         <v>3500</v>
@@ -4321,25 +4441,28 @@
         <v>3500</v>
       </c>
       <c r="Z52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="AA52" s="3">
         <v>3400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>3300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>3400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>3600</v>
       </c>
-      <c r="AD52" s="3" t="s">
+      <c r="AE52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4427,97 +4550,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1142400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1118800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1006100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1021500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>989500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>979000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>959300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>978700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>837800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>829100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>825900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>837300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>853400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>841600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>841800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>790400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>689600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>679600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>660700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>644700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>642600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>631900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>597600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>566800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>593800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>535800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>518000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>515400</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>521000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4549,8 +4678,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4582,97 +4712,101 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E57" s="3">
         <v>83000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>98900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>90100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>89700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>83200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>74800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>66100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>65300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>66500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>70200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>64000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>65700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>69100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>77000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>82600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>78300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>79300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>68800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>69300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>73500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>71700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>65000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>51900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>68500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>71700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>63300</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>57000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4689,7 +4823,7 @@
         <v>6300</v>
       </c>
       <c r="H58" s="3">
-        <v>7000</v>
+        <v>6300</v>
       </c>
       <c r="I58" s="3">
         <v>7000</v>
@@ -4722,7 +4856,7 @@
         <v>7000</v>
       </c>
       <c r="S58" s="3">
-        <v>2300</v>
+        <v>7000</v>
       </c>
       <c r="T58" s="3">
         <v>2300</v>
@@ -4733,8 +4867,8 @@
       <c r="V58" s="3">
         <v>2300</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>8</v>
+      <c r="W58" s="3">
+        <v>2300</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>8</v>
@@ -4742,8 +4876,8 @@
       <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA58" s="3">
         <v>0</v>
@@ -4760,364 +4894,379 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>105400</v>
+      </c>
+      <c r="E59" s="3">
         <v>78000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>76200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>103000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>85500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>83500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>76800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>89500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>61900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>60100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>55800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>71900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>65200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>59300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>59000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>55100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>52500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>49400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>46600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>54900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>47000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>41000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>38200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>28300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>29800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>25800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>28100</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>29300</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>190100</v>
+      </c>
+      <c r="E60" s="3">
         <v>167200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>181400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>199400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>181400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>173700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>158600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>162600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>134200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>133600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>133000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>142900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>137900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>135400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>142900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>144700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>133100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>131000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>117700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>126500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>120600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>112600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>103200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>80200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>98300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>97500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>91400</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>86300</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E61" s="3">
         <v>271500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>239100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>240600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>242100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>246100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>247700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>279400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>291000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>297700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>304300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>311900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>340300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>342000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>343600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>300900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>222600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>225600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>229100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>228900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>229400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>231200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>209700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>216100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>222400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>169600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>162200</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>166900</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>176600</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E62" s="3">
         <v>57900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>57200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>55500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>57200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>62700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>65300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>62200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>53600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>52300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>52900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>53200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>55700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>54700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>52800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>52100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>50100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>50800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>50100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>32500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>37000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>38100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>37300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>34900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>48500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>49700</v>
-      </c>
-      <c r="AC62" s="3">
-        <v>50100</v>
       </c>
       <c r="AD62" s="3">
         <v>50100</v>
       </c>
       <c r="AE62" s="3">
+        <v>50100</v>
+      </c>
+      <c r="AF62" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5205,8 +5354,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5294,8 +5446,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5383,97 +5538,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>506900</v>
+      </c>
+      <c r="E66" s="3">
         <v>496600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>477700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>495500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>480700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>482500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>471600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>504100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>478800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>483600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>490300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>508000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>533900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>532000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>539400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>497600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>405800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>407400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>396900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>387900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>387000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>381900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>350300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>331200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>369200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>316800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>303700</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>303300</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>309900</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5505,8 +5666,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5594,8 +5756,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5683,8 +5848,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5772,8 +5940,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5861,97 +6032,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>416900</v>
+      </c>
+      <c r="E72" s="3">
         <v>413700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>411300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>406100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>398000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>389500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>385400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>377300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>266400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>256800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>248400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>241700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>232100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>225600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>220500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>212600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>203700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>195400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>187600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>180400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>179400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>175200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>173700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>161400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>151900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>147200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>143400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>141300</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>140000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6039,8 +6216,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6128,8 +6308,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6217,97 +6400,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>635400</v>
+      </c>
+      <c r="E76" s="3">
         <v>622100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>528400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>526000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>508800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>496500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>487700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>474600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>358900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>345500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>335600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>329300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>319400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>309600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>302400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>292800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>283800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>272200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>263800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>256800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>255600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>250000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>247300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>235600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>224600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>218900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>214300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>212100</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6395,191 +6584,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44289</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42917</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42826</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E81" s="3">
         <v>2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>110800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>8300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>7500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>4200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>9500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>4700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>3800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>2100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>2800</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6611,97 +6809,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="E83" s="3">
         <v>8000</v>
       </c>
       <c r="F83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G83" s="3">
         <v>8100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>6900</v>
-      </c>
-      <c r="N83" s="3">
-        <v>7100</v>
       </c>
       <c r="O83" s="3">
         <v>7100</v>
       </c>
       <c r="P83" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="Q83" s="3">
         <v>7300</v>
       </c>
       <c r="R83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="S83" s="3">
         <v>7600</v>
-      </c>
-      <c r="S83" s="3">
-        <v>7000</v>
       </c>
       <c r="T83" s="3">
         <v>7000</v>
       </c>
       <c r="U83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="V83" s="3">
         <v>6800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>6700</v>
-      </c>
-      <c r="W83" s="3">
-        <v>6300</v>
       </c>
       <c r="X83" s="3">
         <v>6300</v>
       </c>
       <c r="Y83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="Z83" s="3">
         <v>6000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>5700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>5600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>5700</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>5800</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>5400</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6789,8 +6991,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6878,8 +7083,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6967,8 +7175,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7056,8 +7267,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7145,97 +7359,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E89" s="3">
         <v>9200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-18900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>32100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>25000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-18900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>11700</v>
-      </c>
-      <c r="K89" s="3">
-        <v>5500</v>
       </c>
       <c r="L89" s="3">
         <v>5500</v>
       </c>
       <c r="M89" s="3">
+        <v>5500</v>
+      </c>
+      <c r="N89" s="3">
         <v>-23400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>11100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-12000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>31000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>12000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>9700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>12800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>7200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>15900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>10300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>8100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>11100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>3000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>13200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>15800</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7267,97 +7487,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-119900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5400</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-5300</v>
       </c>
       <c r="G91" s="3">
         <v>-5300</v>
       </c>
       <c r="H91" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="I91" s="3">
         <v>-4200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-75500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-5300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-8400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-9400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-6800</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-4300</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7445,8 +7669,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7534,97 +7761,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-119900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5400</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-5300</v>
       </c>
       <c r="G94" s="3">
         <v>-5300</v>
       </c>
       <c r="H94" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="I94" s="3">
         <v>-3900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>67600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-80200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-35100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-67200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-9400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-6800</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-7700</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7656,8 +7889,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7745,8 +7979,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7834,8 +8071,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7923,8 +8163,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8012,97 +8255,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E100" s="3">
         <v>116400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-33400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-11900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-11600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-29000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>41700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>82100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5100</v>
-      </c>
-      <c r="U100" s="3">
-        <v>-1600</v>
       </c>
       <c r="V100" s="3">
         <v>-1600</v>
       </c>
       <c r="W100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="X100" s="3">
         <v>-2200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>21000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-7400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-6900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>52500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>6700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-6800</v>
-      </c>
-      <c r="AD100" s="3">
-        <v>-10100</v>
       </c>
       <c r="AE100" s="3">
         <v>-10100</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>-10100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8190,93 +8439,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E102" s="3">
         <v>5700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-29100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>25000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-16300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>18300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-57100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>67300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-39500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-18100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>26000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>32800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-6500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>6700</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>1700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-3700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-2000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>300</v>
       </c>
     </row>
